--- a/Iter2-analysisPairs.xlsx
+++ b/Iter2-analysisPairs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D267C2-2CA0-44F2-8565-E4B55DDFE4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5431A29-7ABB-4602-A3E2-4FF2B5762EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-6840" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3132" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1681">
   <si>
     <t>UID</t>
   </si>
@@ -5044,9 +5044,6 @@
     <t>Email is actually related to CASSANDRA-1876, which is currently marked as NOT architectural relevent</t>
   </si>
   <si>
-    <t>Email is actually related to HDFS-5324, which is currently marked as NOT architectural relevent</t>
-  </si>
-  <si>
     <t>Email is very generic question. Similarity probably flagged because issue name is mentioned</t>
   </si>
   <si>
@@ -5057,6 +5054,36 @@
   </si>
   <si>
     <t>CEP-7</t>
+  </si>
+  <si>
+    <t>Email is questioning if ADD exists</t>
+  </si>
+  <si>
+    <t>Email is actually related to HDFS-5324, but that has a word count of 49 instead of 50+</t>
+  </si>
+  <si>
+    <t>Could be related, but is another ADD that is related to issue ADD</t>
+  </si>
+  <si>
+    <t>Duplicate because email is send twice</t>
+  </si>
+  <si>
+    <t>Email refers issue, but not related</t>
+  </si>
+  <si>
+    <t>Email is related to another issue YARN-3480</t>
+  </si>
+  <si>
+    <t>Email is a generic question</t>
+  </si>
+  <si>
+    <t>Email is unanswered question</t>
+  </si>
+  <si>
+    <t>Project Rhino</t>
+  </si>
+  <si>
+    <t>Could be another ADD that is related to issue ADD</t>
   </si>
 </sst>
 </file>
@@ -5438,8 +5465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T501"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N169" sqref="N169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7522,7 +7549,7 @@
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" t="s">
-        <v>1667</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,7 +7581,7 @@
         <v>1634</v>
       </c>
       <c r="Q69" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,6 +7664,12 @@
       <c r="M72" t="s">
         <v>165</v>
       </c>
+      <c r="O72" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>1675</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
@@ -7923,6 +7956,9 @@
       <c r="M83" t="s">
         <v>44</v>
       </c>
+      <c r="O83" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84">
@@ -8263,7 +8299,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>13214477</v>
       </c>
@@ -8289,7 +8325,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>13199863</v>
       </c>
@@ -8315,7 +8351,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>12180998</v>
       </c>
@@ -8341,7 +8377,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>11883171</v>
       </c>
@@ -8367,7 +8403,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>12636684</v>
       </c>
@@ -8393,7 +8429,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>11084880</v>
       </c>
@@ -8419,7 +8455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>12979215</v>
       </c>
@@ -8444,8 +8480,11 @@
       <c r="M103" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O103" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>14205068</v>
       </c>
@@ -8471,7 +8510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>11892968</v>
       </c>
@@ -8497,7 +8536,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14801253</v>
       </c>
@@ -8523,7 +8562,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>13661842</v>
       </c>
@@ -8549,7 +8588,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>13646716</v>
       </c>
@@ -8574,8 +8613,15 @@
       <c r="M108" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O108" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P108" s="7"/>
+      <c r="Q108" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>12865307</v>
       </c>
@@ -8601,7 +8647,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>13523760</v>
       </c>
@@ -8627,7 +8673,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>12854603</v>
       </c>
@@ -8653,7 +8699,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14141169</v>
       </c>
@@ -8679,7 +8725,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>11882544</v>
       </c>
@@ -8705,7 +8751,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>10836611</v>
       </c>
@@ -8731,7 +8777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>12554110</v>
       </c>
@@ -8757,7 +8803,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>10624841</v>
       </c>
@@ -8783,7 +8829,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>10729796</v>
       </c>
@@ -8809,7 +8855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>12952918</v>
       </c>
@@ -8835,7 +8881,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>11494699</v>
       </c>
@@ -8861,7 +8907,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>14068067</v>
       </c>
@@ -8887,7 +8933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12852903</v>
       </c>
@@ -8913,7 +8959,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>12884704</v>
       </c>
@@ -8939,7 +8985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>14424017</v>
       </c>
@@ -8965,7 +9011,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>12912367</v>
       </c>
@@ -8991,7 +9037,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>11507867</v>
       </c>
@@ -9016,8 +9062,14 @@
       <c r="M125" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O125" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>12363630</v>
       </c>
@@ -9042,8 +9094,14 @@
       <c r="M126" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O126" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>10640500</v>
       </c>
@@ -9069,7 +9127,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>12557849</v>
       </c>
@@ -9251,6 +9309,9 @@
       <c r="M134" t="s">
         <v>205</v>
       </c>
+      <c r="O134" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135">
@@ -9355,6 +9416,13 @@
       <c r="M138" t="s">
         <v>253</v>
       </c>
+      <c r="O138" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P138" s="7"/>
+      <c r="Q138" t="s">
+        <v>1639</v>
+      </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139">
@@ -9512,7 +9580,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>14405287</v>
       </c>
@@ -9538,7 +9606,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>12596982</v>
       </c>
@@ -9564,7 +9632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>11024209</v>
       </c>
@@ -9590,7 +9658,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>11882016</v>
       </c>
@@ -9616,7 +9684,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14166130</v>
       </c>
@@ -9642,7 +9710,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>12636685</v>
       </c>
@@ -9668,7 +9736,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>11872326</v>
       </c>
@@ -9694,7 +9762,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>14370248</v>
       </c>
@@ -9720,7 +9788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>10801882</v>
       </c>
@@ -9746,7 +9814,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>14163249</v>
       </c>
@@ -9772,7 +9840,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>14429931</v>
       </c>
@@ -9798,7 +9866,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>11869875</v>
       </c>
@@ -9824,7 +9892,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>14194469</v>
       </c>
@@ -9850,7 +9918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>13131643</v>
       </c>
@@ -9875,8 +9943,11 @@
       <c r="M158" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O158" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>13840996</v>
       </c>
@@ -9902,7 +9973,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>14891433</v>
       </c>
@@ -9928,7 +9999,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>11301259</v>
       </c>
@@ -9954,7 +10025,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>12855802</v>
       </c>
@@ -9980,7 +10051,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>14924181</v>
       </c>
@@ -10006,7 +10077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>14102595</v>
       </c>
@@ -10032,7 +10103,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>14808132</v>
       </c>
@@ -10058,7 +10129,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>12548359</v>
       </c>
@@ -10084,7 +10155,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>11871623</v>
       </c>
@@ -10110,7 +10181,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>14153775</v>
       </c>
@@ -10136,7 +10207,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>10656400</v>
       </c>
@@ -10161,8 +10232,11 @@
       <c r="M169" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O169" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>11330691</v>
       </c>
@@ -10188,7 +10262,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>10683837</v>
       </c>
@@ -10214,7 +10288,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14791055</v>
       </c>
@@ -10240,7 +10314,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>14070824</v>
       </c>
@@ -10266,7 +10340,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>13051232</v>
       </c>
@@ -10292,7 +10366,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>12980265</v>
       </c>
@@ -10318,7 +10392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>12986994</v>
       </c>
@@ -10344,7 +10418,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>12776072</v>
       </c>
@@ -10369,8 +10443,11 @@
       <c r="M177" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O177" s="5" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>11384237</v>
       </c>
@@ -10396,7 +10473,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>13871207</v>
       </c>
@@ -10422,7 +10499,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>12868147</v>
       </c>
@@ -10448,7 +10525,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>12238032</v>
       </c>
@@ -10474,7 +10551,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>14811176</v>
       </c>
@@ -10500,7 +10577,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>14205442</v>
       </c>
@@ -10526,7 +10603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>11159174</v>
       </c>
@@ -10552,7 +10629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>12033792</v>
       </c>
@@ -10578,7 +10655,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>11617832</v>
       </c>
@@ -10604,7 +10681,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>12595414</v>
       </c>
@@ -10630,7 +10707,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>12486518</v>
       </c>
@@ -10656,7 +10733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>11893317</v>
       </c>
@@ -10682,7 +10759,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>12589567</v>
       </c>
@@ -10708,7 +10785,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>10830254</v>
       </c>
@@ -10734,7 +10811,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>14967445</v>
       </c>
@@ -10760,7 +10837,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>13033757</v>
       </c>
@@ -10786,7 +10863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>14441023</v>
       </c>
@@ -10812,7 +10889,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>12144143</v>
       </c>
@@ -10838,7 +10915,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>12629208</v>
       </c>
@@ -10864,7 +10941,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>15029779</v>
       </c>
@@ -10890,7 +10967,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>14433472</v>
       </c>
@@ -10915,8 +10992,15 @@
       <c r="M198" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O198" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P198" s="7"/>
+      <c r="Q198" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>12452312</v>
       </c>
@@ -10942,7 +11026,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>10717599</v>
       </c>
@@ -10968,7 +11052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>11002079</v>
       </c>
@@ -10994,7 +11078,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>11898447</v>
       </c>
@@ -11020,7 +11104,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>11513704</v>
       </c>
@@ -11046,7 +11130,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>14749782</v>
       </c>
@@ -11072,7 +11156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>12679990</v>
       </c>
@@ -11098,7 +11182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>12801966</v>
       </c>
@@ -11124,7 +11208,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>13648155</v>
       </c>
@@ -11150,7 +11234,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>14426103</v>
       </c>
@@ -11592,7 +11676,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>13288502</v>
       </c>
@@ -11618,7 +11702,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>12969921</v>
       </c>
@@ -11644,7 +11728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>12597439</v>
       </c>
@@ -11670,7 +11754,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>12952857</v>
       </c>
@@ -11696,7 +11780,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>11020112</v>
       </c>
@@ -11722,7 +11806,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>14397564</v>
       </c>
@@ -11748,7 +11832,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>13450397</v>
       </c>
@@ -11773,8 +11857,11 @@
       <c r="M231" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O231" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>11953553</v>
       </c>
@@ -11800,7 +11887,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>11406845</v>
       </c>
@@ -11826,7 +11913,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>14414971</v>
       </c>
@@ -11852,7 +11939,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>10964398</v>
       </c>
@@ -11878,7 +11965,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>14193855</v>
       </c>
@@ -11904,7 +11991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>15039334</v>
       </c>
@@ -11930,7 +12017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>14902018</v>
       </c>
@@ -11956,7 +12043,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>10907723</v>
       </c>
@@ -11982,7 +12069,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>12890535</v>
       </c>
@@ -12424,7 +12511,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>14308322</v>
       </c>
@@ -12450,7 +12537,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>13460701</v>
       </c>
@@ -12476,7 +12563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>13214608</v>
       </c>
@@ -12502,7 +12589,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>11495784</v>
       </c>
@@ -12528,7 +12615,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>11259730</v>
       </c>
@@ -12554,7 +12641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>14344683</v>
       </c>
@@ -12580,7 +12667,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>14739254</v>
       </c>
@@ -12606,7 +12693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>11954032</v>
       </c>
@@ -12631,8 +12718,11 @@
       <c r="M264" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O264" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>14495984</v>
       </c>
@@ -12658,7 +12748,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>13668410</v>
       </c>
@@ -12684,7 +12774,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>11947818</v>
       </c>
@@ -12710,7 +12800,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>13073570</v>
       </c>
@@ -12736,7 +12826,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>14759299</v>
       </c>
@@ -12762,7 +12852,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>13467633</v>
       </c>
@@ -12788,7 +12878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>12141091</v>
       </c>
@@ -12813,8 +12903,11 @@
       <c r="M271" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O271" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>11693047</v>
       </c>
@@ -12840,7 +12933,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>14110906</v>
       </c>
@@ -12866,7 +12959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>10815555</v>
       </c>
@@ -12892,7 +12985,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>11503740</v>
       </c>
@@ -12918,7 +13011,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>11583247</v>
       </c>
@@ -12944,7 +13037,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>14540204</v>
       </c>
@@ -12970,7 +13063,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>11176310</v>
       </c>
@@ -12996,7 +13089,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>13483131</v>
       </c>
@@ -13022,7 +13115,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>10633748</v>
       </c>
@@ -13048,7 +13141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>14749802</v>
       </c>
@@ -13074,7 +13167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>13840874</v>
       </c>
@@ -13100,7 +13193,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>12597803</v>
       </c>
@@ -13126,7 +13219,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>14370353</v>
       </c>
@@ -13152,7 +13245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>11941133</v>
       </c>
@@ -13178,7 +13271,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>12484045</v>
       </c>
@@ -13203,8 +13296,11 @@
       <c r="M286" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O286" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>12179604</v>
       </c>
@@ -13230,7 +13326,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>14779331</v>
       </c>
@@ -13256,7 +13352,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>13044927</v>
       </c>
@@ -13282,7 +13378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>13471024</v>
       </c>
@@ -13307,8 +13403,11 @@
       <c r="M290" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O290" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>14738648</v>
       </c>
@@ -13334,7 +13433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>12989800</v>
       </c>
@@ -13360,7 +13459,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>10756226</v>
       </c>
@@ -13386,7 +13485,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>10637125</v>
       </c>
@@ -13412,7 +13511,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>11141767</v>
       </c>
@@ -13437,8 +13536,11 @@
       <c r="M295" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O295" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>14238013</v>
       </c>
@@ -13463,8 +13565,15 @@
       <c r="M296" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O296" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P296" s="7"/>
+      <c r="Q296" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>11910008</v>
       </c>
@@ -13490,7 +13599,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>14505456</v>
       </c>
@@ -13516,7 +13625,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>12642696</v>
       </c>
@@ -13542,7 +13651,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>11650655</v>
       </c>
@@ -13568,7 +13677,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>14364293</v>
       </c>
@@ -13594,7 +13703,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>11712148</v>
       </c>
@@ -13620,7 +13729,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>12761650</v>
       </c>
@@ -13645,8 +13754,15 @@
       <c r="M303" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O303" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P303" s="7"/>
+      <c r="Q303" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>14363999</v>
       </c>
@@ -13671,8 +13787,11 @@
       <c r="M304" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O304" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>11684678</v>
       </c>
@@ -13698,7 +13817,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>10948829</v>
       </c>
@@ -13724,7 +13843,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>14309231</v>
       </c>
@@ -13750,7 +13869,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>14343529</v>
       </c>
@@ -13776,7 +13895,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>15028530</v>
       </c>
@@ -13801,8 +13920,14 @@
       <c r="M309" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O309" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>10885579</v>
       </c>
@@ -13828,7 +13953,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>11941222</v>
       </c>
@@ -13854,7 +13979,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>14206306</v>
       </c>
@@ -13880,7 +14005,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>13662229</v>
       </c>
@@ -13906,7 +14031,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>11730285</v>
       </c>
@@ -13932,7 +14057,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>14337383</v>
       </c>
@@ -13958,7 +14083,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>11977412</v>
       </c>
@@ -13984,7 +14109,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>11658862</v>
       </c>
@@ -14010,7 +14135,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>11964303</v>
       </c>
@@ -14036,7 +14161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>13821746</v>
       </c>
@@ -14062,7 +14187,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>12237643</v>
       </c>
@@ -14504,7 +14629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>12148024</v>
       </c>
@@ -14530,7 +14655,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>11441685</v>
       </c>
@@ -14556,7 +14681,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>13137536</v>
       </c>
@@ -14582,7 +14707,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>11648994</v>
       </c>
@@ -14608,7 +14733,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>13984844</v>
       </c>
@@ -14634,7 +14759,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>12978066</v>
       </c>
@@ -14659,8 +14784,11 @@
       <c r="M342" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O342" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>14405293</v>
       </c>
@@ -14686,7 +14814,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>12904515</v>
       </c>
@@ -14712,7 +14840,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>14911655</v>
       </c>
@@ -14738,7 +14866,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>14506243</v>
       </c>
@@ -14764,7 +14892,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>14489575</v>
       </c>
@@ -14790,7 +14918,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>11883178</v>
       </c>
@@ -14816,7 +14944,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>11892673</v>
       </c>
@@ -14842,7 +14970,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>13169103</v>
       </c>
@@ -14868,7 +14996,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>13799668</v>
       </c>
@@ -14894,7 +15022,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>13665366</v>
       </c>
@@ -14920,7 +15048,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>12157263</v>
       </c>
@@ -14946,7 +15074,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>13339741</v>
       </c>
@@ -14971,8 +15099,11 @@
       <c r="M354" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O354" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>14424300</v>
       </c>
@@ -14998,7 +15129,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>13799720</v>
       </c>
@@ -15024,7 +15155,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>13413430</v>
       </c>
@@ -15050,7 +15181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>11009346</v>
       </c>
@@ -15076,7 +15207,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>13663573</v>
       </c>
@@ -15101,8 +15232,11 @@
       <c r="M359" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O359" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>13160903</v>
       </c>
@@ -15128,7 +15262,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>14459556</v>
       </c>
@@ -15154,7 +15288,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>13822258</v>
       </c>
@@ -15180,7 +15314,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>14488594</v>
       </c>
@@ -15206,7 +15340,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>13087510</v>
       </c>
@@ -15232,7 +15366,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>10952807</v>
       </c>
@@ -15258,7 +15392,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>14450258</v>
       </c>
@@ -15284,7 +15418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>12854615</v>
       </c>
@@ -15310,7 +15444,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>14363846</v>
       </c>
@@ -15335,8 +15469,11 @@
       <c r="M368" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O368" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>11234741</v>
       </c>
@@ -15362,7 +15499,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>11951904</v>
       </c>
@@ -15388,7 +15525,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>14033631</v>
       </c>
@@ -15414,7 +15551,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>11954291</v>
       </c>
@@ -15440,7 +15577,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>13779553</v>
       </c>
@@ -15466,7 +15603,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>15021293</v>
       </c>
@@ -15492,7 +15629,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>13161116</v>
       </c>
@@ -15518,7 +15655,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>12157262</v>
       </c>
@@ -15544,7 +15681,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>13611973</v>
       </c>
@@ -15570,7 +15707,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>10756860</v>
       </c>
@@ -15596,7 +15733,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>14860787</v>
       </c>
@@ -15622,7 +15759,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>11009367</v>
       </c>
@@ -15648,7 +15785,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>13081547</v>
       </c>
@@ -15674,7 +15811,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>12090301</v>
       </c>
@@ -15700,7 +15837,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>14669072</v>
       </c>
@@ -15725,8 +15862,14 @@
       <c r="M383" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O383" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>13435791</v>
       </c>
@@ -15752,7 +15895,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>14469587</v>
       </c>
@@ -15778,7 +15921,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>14502362</v>
       </c>
@@ -15803,8 +15946,14 @@
       <c r="M386" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O386" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>13132741</v>
       </c>
@@ -15830,7 +15979,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>14498096</v>
       </c>
@@ -15856,7 +16005,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>14416956</v>
       </c>
@@ -15882,7 +16031,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>10768926</v>
       </c>
@@ -15908,7 +16057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>13127813</v>
       </c>
@@ -15934,7 +16083,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>13027411</v>
       </c>
@@ -15960,7 +16109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>11411780</v>
       </c>
@@ -15986,7 +16135,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>12389285</v>
       </c>
@@ -16012,7 +16161,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>14300893</v>
       </c>
@@ -16038,7 +16187,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>14238804</v>
       </c>
@@ -16064,7 +16213,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>13471476</v>
       </c>
@@ -16090,7 +16239,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>12100083</v>
       </c>
@@ -16116,7 +16265,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>12302640</v>
       </c>
@@ -16142,7 +16291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>11226893</v>
       </c>
@@ -16584,7 +16733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>14504822</v>
       </c>
@@ -16610,7 +16759,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>12180330</v>
       </c>
@@ -16636,7 +16785,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>14074049</v>
       </c>
@@ -16661,8 +16810,11 @@
       <c r="M419" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O419" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>12173822</v>
       </c>
@@ -16688,7 +16840,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>13468053</v>
       </c>
@@ -16714,7 +16866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>12544439</v>
       </c>
@@ -16740,7 +16892,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>11641223</v>
       </c>
@@ -16766,7 +16918,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>12180400</v>
       </c>
@@ -16792,7 +16944,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>14468843</v>
       </c>
@@ -16818,7 +16970,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>11874482</v>
       </c>
@@ -16844,7 +16996,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>12862708</v>
       </c>
@@ -16870,7 +17022,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>11946146</v>
       </c>
@@ -16896,7 +17048,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>14522563</v>
       </c>
@@ -16922,7 +17074,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>12070900</v>
       </c>
@@ -16947,8 +17099,11 @@
       <c r="M430" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O430" s="5" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>12163915</v>
       </c>
@@ -16974,7 +17129,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>11513214</v>
       </c>
@@ -17000,7 +17155,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>14469442</v>
       </c>
@@ -17026,7 +17181,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>12799214</v>
       </c>
@@ -17052,7 +17207,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>11297127</v>
       </c>
@@ -17077,8 +17232,14 @@
       <c r="M435" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O435" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q435" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>12147766</v>
       </c>
@@ -17104,7 +17265,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>14750847</v>
       </c>
@@ -17130,7 +17291,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>14455428</v>
       </c>
@@ -17156,7 +17317,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>10810741</v>
       </c>
@@ -17182,7 +17343,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>13412618</v>
       </c>
@@ -17208,7 +17369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>13040899</v>
       </c>
@@ -17234,7 +17395,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>10809799</v>
       </c>
@@ -17260,7 +17421,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>14414701</v>
       </c>
@@ -17286,7 +17447,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>11512349</v>
       </c>
@@ -17312,7 +17473,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>11952714</v>
       </c>
@@ -17338,7 +17499,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>14750610</v>
       </c>
@@ -17364,7 +17525,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>10939275</v>
       </c>
@@ -17390,7 +17551,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>13482437</v>
       </c>
@@ -18804,8 +18965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:Q501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20101,7 +20262,7 @@
         <v>1634</v>
       </c>
       <c r="Q42" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -20255,7 +20416,7 @@
         <v>13</v>
       </c>
       <c r="Q47" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -20504,7 +20665,7 @@
         <v>7</v>
       </c>
       <c r="P56" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -21131,7 +21292,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>50293810</v>
       </c>
@@ -21157,7 +21318,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>49062430</v>
       </c>
@@ -21182,8 +21343,11 @@
       <c r="M82" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O82" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>51113643</v>
       </c>
@@ -21209,7 +21373,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>50110968</v>
       </c>
@@ -21235,7 +21399,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>49923463</v>
       </c>
@@ -21261,7 +21425,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>49494288</v>
       </c>
@@ -21287,7 +21451,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>51099435</v>
       </c>
@@ -21313,7 +21477,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>50194995</v>
       </c>
@@ -21339,7 +21503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>50909015</v>
       </c>
@@ -21365,7 +21529,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>50121564</v>
       </c>
@@ -21391,7 +21555,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>51399027</v>
       </c>
@@ -21417,7 +21581,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>50805034</v>
       </c>
@@ -21443,7 +21607,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>50698686</v>
       </c>
@@ -21469,7 +21633,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>50503082</v>
       </c>
@@ -21495,7 +21659,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>50938201</v>
       </c>
@@ -21521,7 +21685,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>49407376</v>
       </c>
@@ -21547,7 +21711,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>50822981</v>
       </c>
@@ -21573,7 +21737,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>49901779</v>
       </c>
@@ -21599,7 +21763,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>51150836</v>
       </c>
@@ -21625,7 +21789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>50435835</v>
       </c>
@@ -21650,8 +21814,11 @@
       <c r="M100" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O100" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>49780188</v>
       </c>
@@ -21677,7 +21844,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>50998841</v>
       </c>
@@ -21703,7 +21870,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>49943451</v>
       </c>
@@ -21728,8 +21895,11 @@
       <c r="M103" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O103" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>51093569</v>
       </c>
@@ -21755,7 +21925,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>49074860</v>
       </c>
@@ -21780,8 +21950,15 @@
       <c r="M105" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O105" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P105" s="7"/>
+      <c r="Q105" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>51200830</v>
       </c>
@@ -21807,7 +21984,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>49547147</v>
       </c>
@@ -21833,7 +22010,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>50839471</v>
       </c>
@@ -21859,7 +22036,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>50101608</v>
       </c>
@@ -21885,7 +22062,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50988394</v>
       </c>
@@ -21911,7 +22088,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>50412445</v>
       </c>
@@ -21937,7 +22114,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>49463674</v>
       </c>
@@ -22795,7 +22972,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>50146845</v>
       </c>
@@ -22821,7 +22998,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>50500624</v>
       </c>
@@ -22847,7 +23024,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>49620146</v>
       </c>
@@ -22872,8 +23049,11 @@
       <c r="M147" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O147" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>51268493</v>
       </c>
@@ -22899,7 +23079,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>49695097</v>
       </c>
@@ -22925,7 +23105,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>51415050</v>
       </c>
@@ -22951,7 +23131,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>49585778</v>
       </c>
@@ -22977,7 +23157,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>49881957</v>
       </c>
@@ -23003,7 +23183,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>50907268</v>
       </c>
@@ -23029,7 +23209,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>50702458</v>
       </c>
@@ -23055,7 +23235,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>50035423</v>
       </c>
@@ -23081,7 +23261,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>51427746</v>
       </c>
@@ -23107,7 +23287,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>49086827</v>
       </c>
@@ -23133,7 +23313,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>49534329</v>
       </c>
@@ -23159,7 +23339,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>50051140</v>
       </c>
@@ -23185,7 +23365,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>51400812</v>
       </c>
@@ -24459,7 +24639,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>49143321</v>
       </c>
@@ -24485,7 +24665,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>49148497</v>
       </c>
@@ -24511,7 +24691,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>50506302</v>
       </c>
@@ -24537,7 +24717,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>49943475</v>
       </c>
@@ -24563,7 +24743,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>49601341</v>
       </c>
@@ -24589,7 +24769,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>51187900</v>
       </c>
@@ -24615,7 +24795,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>49086766</v>
       </c>
@@ -24641,7 +24821,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>49371795</v>
       </c>
@@ -24667,7 +24847,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>49463408</v>
       </c>
@@ -24693,7 +24873,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>51145196</v>
       </c>
@@ -24719,7 +24899,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>50516636</v>
       </c>
@@ -24744,8 +24924,11 @@
       <c r="M219" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O219" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>49079596</v>
       </c>
@@ -24771,7 +24954,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>50788875</v>
       </c>
@@ -24797,7 +24980,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>49830635</v>
       </c>
@@ -24823,7 +25006,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>50874225</v>
       </c>
@@ -24849,7 +25032,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>49090170</v>
       </c>
@@ -24875,7 +25058,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>49182171</v>
       </c>
@@ -24901,7 +25084,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>50930754</v>
       </c>
@@ -24927,7 +25110,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>51273774</v>
       </c>
@@ -24952,8 +25135,11 @@
       <c r="M227" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O227" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>49649859</v>
       </c>
@@ -24979,7 +25165,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>49930124</v>
       </c>
@@ -25005,7 +25191,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>49388174</v>
       </c>
@@ -25031,7 +25217,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>51226131</v>
       </c>
@@ -25057,7 +25243,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>49503165</v>
       </c>
@@ -25083,7 +25269,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>49483818</v>
       </c>
@@ -25109,7 +25295,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>51071648</v>
       </c>
@@ -25135,7 +25321,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>49557724</v>
       </c>
@@ -25161,7 +25347,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>50605726</v>
       </c>
@@ -25187,7 +25373,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>49316472</v>
       </c>
@@ -25213,7 +25399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>49064269</v>
       </c>
@@ -25239,7 +25425,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>49717010</v>
       </c>
@@ -25265,7 +25451,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>49463261</v>
       </c>
@@ -29867,7 +30053,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>51196783</v>
       </c>
@@ -29893,7 +30079,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>50997620</v>
       </c>
@@ -29919,7 +30105,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>49637081</v>
       </c>
@@ -29945,7 +30131,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>49722681</v>
       </c>
@@ -29971,7 +30157,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>49907707</v>
       </c>
@@ -29997,7 +30183,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>50107614</v>
       </c>
@@ -30023,7 +30209,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>49493571</v>
       </c>
@@ -30049,7 +30235,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>49934489</v>
       </c>
@@ -30075,7 +30261,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>50263854</v>
       </c>
@@ -30101,7 +30287,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>51140910</v>
       </c>
@@ -30127,7 +30313,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>51141100</v>
       </c>
@@ -30153,7 +30339,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>51141498</v>
       </c>
@@ -30179,7 +30365,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>49463978</v>
       </c>
@@ -30205,7 +30391,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>49306330</v>
       </c>
@@ -30231,7 +30417,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>49462975</v>
       </c>
@@ -30256,8 +30442,14 @@
       <c r="M431" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O431" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>49511162</v>
       </c>

--- a/Iter2-analysisPairs.xlsx
+++ b/Iter2-analysisPairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5431A29-7ABB-4602-A3E2-4FF2B5762EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B0FE82-056F-4F27-840C-6485C490B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6840" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6840" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchIssuesAllEmails" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="1681">
   <si>
     <t>UID</t>
   </si>
@@ -5465,8 +5465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T501"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N169" sqref="N169"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18965,8 +18965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:Q501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O103" sqref="O103"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23391,7 +23391,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>50506105</v>
       </c>
@@ -23417,7 +23417,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>51260034</v>
       </c>
@@ -23443,7 +23443,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>51258591</v>
       </c>
@@ -23469,7 +23469,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>50275251</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>49296267</v>
       </c>
@@ -23521,7 +23521,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>50322363</v>
       </c>
@@ -23547,7 +23547,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>49600928</v>
       </c>
@@ -23572,8 +23572,11 @@
       <c r="M167" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O167" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>50789472</v>
       </c>
@@ -23599,7 +23602,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>49423835</v>
       </c>
@@ -23625,7 +23628,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>49722413</v>
       </c>
@@ -23651,7 +23654,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>50142693</v>
       </c>
@@ -23677,7 +23680,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>49377838</v>
       </c>
@@ -23703,7 +23706,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>50788224</v>
       </c>
@@ -23729,7 +23732,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>50904987</v>
       </c>
@@ -23755,7 +23758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>49277958</v>
       </c>
@@ -23781,7 +23784,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>49173883</v>
       </c>
@@ -25893,7 +25896,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>49053439</v>
       </c>
@@ -25919,7 +25922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>49466635</v>
       </c>
@@ -25945,7 +25948,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>50154659</v>
       </c>
@@ -25971,7 +25974,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>49920848</v>
       </c>
@@ -25997,7 +26000,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>50888037</v>
       </c>
@@ -26023,7 +26026,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>50507661</v>
       </c>
@@ -26049,7 +26052,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>49071759</v>
       </c>
@@ -26075,7 +26078,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>49501734</v>
       </c>
@@ -26101,7 +26104,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>49807505</v>
       </c>
@@ -26127,7 +26130,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>49642518</v>
       </c>
@@ -26153,7 +26156,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>50958521</v>
       </c>
@@ -26179,7 +26182,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>51094056</v>
       </c>
@@ -26205,7 +26208,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>50043547</v>
       </c>
@@ -26231,7 +26234,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>49836817</v>
       </c>
@@ -26256,8 +26259,11 @@
       <c r="M270" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O270" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>49871233</v>
       </c>
@@ -26283,7 +26289,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>50405289</v>
       </c>
@@ -28389,7 +28395,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>49930121</v>
       </c>
@@ -28415,7 +28421,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>49153565</v>
       </c>
@@ -28441,7 +28447,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>50316452</v>
       </c>
@@ -28467,7 +28473,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>50781620</v>
       </c>
@@ -28493,7 +28499,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>49568218</v>
       </c>
@@ -28519,7 +28525,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>49893231</v>
       </c>
@@ -28545,7 +28551,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>51261915</v>
       </c>
@@ -28571,7 +28577,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>50608227</v>
       </c>
@@ -28597,7 +28603,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>49379786</v>
       </c>
@@ -28623,7 +28629,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>49157451</v>
       </c>
@@ -28649,7 +28655,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>50823780</v>
       </c>
@@ -28675,7 +28681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>49316351</v>
       </c>
@@ -28701,7 +28707,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>50135845</v>
       </c>
@@ -28727,7 +28733,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>49987701</v>
       </c>
@@ -28752,8 +28758,11 @@
       <c r="M366" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O366" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>50255040</v>
       </c>
@@ -28779,7 +28788,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>49345101</v>
       </c>
@@ -32139,7 +32148,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>50326480</v>
       </c>
@@ -32165,7 +32174,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>50332658</v>
       </c>
@@ -32191,7 +32200,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>51238882</v>
       </c>
@@ -32216,8 +32225,11 @@
       <c r="M499" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O499" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>49790106</v>
       </c>
@@ -32243,7 +32255,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>49859654</v>
       </c>

--- a/Iter2-analysisPairs.xlsx
+++ b/Iter2-analysisPairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B0FE82-056F-4F27-840C-6485C490B9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C7B9DC-0E8B-4498-8A67-AA62106D04C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6840" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchIssuesAllEmails" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="1681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="1692">
   <si>
     <t>UID</t>
   </si>
@@ -5084,6 +5084,39 @@
   </si>
   <si>
     <t>Could be another ADD that is related to issue ADD</t>
+  </si>
+  <si>
+    <t>Email is just a thread where JIRAs are collected to be reviewed</t>
+  </si>
+  <si>
+    <t>is related to a different email, but this email could spark the actual email</t>
+  </si>
+  <si>
+    <t>Seems related but can't find a direct link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue discusses replacement whilst email explains current </t>
+  </si>
+  <si>
+    <t>Merge into trunk</t>
+  </si>
+  <si>
+    <t>Is related, but it is changing documentation</t>
+  </si>
+  <si>
+    <t>Asks for help/support, implementation issue follows</t>
+  </si>
+  <si>
+    <t>precursor to rhino/tokenAuth</t>
+  </si>
+  <si>
+    <t>Is related but difficult to judge how</t>
+  </si>
+  <si>
+    <t>Merge into trunk.</t>
+  </si>
+  <si>
+    <t>CEP-19, which is build ontop of CEP-11, making it difficult. If we look at CEP-19 in a void it should be pattern 8 but it has the wrong issue</t>
   </si>
 </sst>
 </file>
@@ -5168,7 +5201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5178,6 +5211,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5465,8 +5499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O71" sqref="O71"/>
+    <sheetView topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M128" sqref="M128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7638,6 +7672,9 @@
       <c r="M71" t="s">
         <v>231</v>
       </c>
+      <c r="O71" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
@@ -7696,6 +7733,10 @@
       <c r="M73" t="s">
         <v>144</v>
       </c>
+      <c r="O73" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P73" s="7"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -7722,6 +7763,9 @@
       <c r="M74" t="s">
         <v>49</v>
       </c>
+      <c r="O74" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
@@ -7748,6 +7792,10 @@
       <c r="M75" t="s">
         <v>55</v>
       </c>
+      <c r="O75" s="3">
+        <v>1</v>
+      </c>
+      <c r="P75" s="9"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
@@ -7774,6 +7822,12 @@
       <c r="M76" t="s">
         <v>232</v>
       </c>
+      <c r="O76" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1681</v>
+      </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -7800,6 +7854,9 @@
       <c r="M77" t="s">
         <v>233</v>
       </c>
+      <c r="O77" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -7826,6 +7883,9 @@
       <c r="M78" t="s">
         <v>234</v>
       </c>
+      <c r="O78" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
@@ -7852,6 +7912,9 @@
       <c r="M79" t="s">
         <v>65</v>
       </c>
+      <c r="O79" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -7878,6 +7941,9 @@
       <c r="M80" t="s">
         <v>66</v>
       </c>
+      <c r="O80" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81">
@@ -7904,6 +7970,9 @@
       <c r="M81" t="s">
         <v>77</v>
       </c>
+      <c r="O81" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82">
@@ -7930,6 +7999,9 @@
       <c r="M82" t="s">
         <v>235</v>
       </c>
+      <c r="O82" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -7985,6 +8057,13 @@
       <c r="M84" t="s">
         <v>26</v>
       </c>
+      <c r="O84" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P84" s="7"/>
+      <c r="Q84" t="s">
+        <v>1682</v>
+      </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -8011,6 +8090,12 @@
       <c r="M85" t="s">
         <v>236</v>
       </c>
+      <c r="O85" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1683</v>
+      </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86">
@@ -8037,6 +8122,9 @@
       <c r="M86" t="s">
         <v>148</v>
       </c>
+      <c r="O86" s="5" t="s">
+        <v>1632</v>
+      </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
@@ -8063,6 +8151,9 @@
       <c r="M87" t="s">
         <v>62</v>
       </c>
+      <c r="O87" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
@@ -8089,6 +8180,9 @@
       <c r="M88" t="s">
         <v>46</v>
       </c>
+      <c r="O88" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
@@ -8115,6 +8209,9 @@
       <c r="M89" t="s">
         <v>197</v>
       </c>
+      <c r="O89" s="6" t="s">
+        <v>1634</v>
+      </c>
       <c r="T89" s="2"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -8142,6 +8239,9 @@
       <c r="M90" t="s">
         <v>67</v>
       </c>
+      <c r="O90" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91">
@@ -8168,6 +8268,13 @@
       <c r="M91" t="s">
         <v>38</v>
       </c>
+      <c r="O91" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P91" s="7"/>
+      <c r="Q91" t="s">
+        <v>1684</v>
+      </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92">
@@ -8194,6 +8301,9 @@
       <c r="M92" t="s">
         <v>235</v>
       </c>
+      <c r="O92" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93">
@@ -8220,6 +8330,9 @@
       <c r="M93" t="s">
         <v>237</v>
       </c>
+      <c r="O93" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94">
@@ -8246,6 +8359,9 @@
       <c r="M94" t="s">
         <v>77</v>
       </c>
+      <c r="O94" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95">
@@ -8272,6 +8388,9 @@
       <c r="M95" t="s">
         <v>238</v>
       </c>
+      <c r="O95" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96">
@@ -8298,6 +8417,10 @@
       <c r="M96" t="s">
         <v>229</v>
       </c>
+      <c r="O96" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P96" s="7"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97">
@@ -8324,6 +8447,9 @@
       <c r="M97" t="s">
         <v>70</v>
       </c>
+      <c r="O97" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98">
@@ -8350,6 +8476,9 @@
       <c r="M98" t="s">
         <v>822</v>
       </c>
+      <c r="O98" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99">
@@ -8376,6 +8505,9 @@
       <c r="M99" t="s">
         <v>240</v>
       </c>
+      <c r="O99" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100">
@@ -8402,6 +8534,9 @@
       <c r="M100" t="s">
         <v>224</v>
       </c>
+      <c r="O100" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101">
@@ -8427,6 +8562,9 @@
       </c>
       <c r="M101" t="s">
         <v>228</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -18965,8 +19103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:Q501"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O101" sqref="O101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20448,7 +20586,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>50293734</v>
       </c>
@@ -20477,7 +20615,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49553195</v>
       </c>
@@ -20506,7 +20644,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50001877</v>
       </c>
@@ -20531,8 +20669,11 @@
       <c r="M51" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O51" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49898280</v>
       </c>
@@ -20557,8 +20698,11 @@
       <c r="M52" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O52" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>49390419</v>
       </c>
@@ -20583,8 +20727,11 @@
       <c r="M53" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O53" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>49724849</v>
       </c>
@@ -20609,8 +20756,11 @@
       <c r="M54" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O54" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>49468153</v>
       </c>
@@ -20635,8 +20785,14 @@
       <c r="M55" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O55" s="1">
+        <v>7</v>
+      </c>
+      <c r="P55" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>50823684</v>
       </c>
@@ -20668,7 +20824,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>50516622</v>
       </c>
@@ -20693,8 +20849,14 @@
       <c r="M57" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O57" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>50817071</v>
       </c>
@@ -20719,8 +20881,11 @@
       <c r="M58" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O58" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>51163957</v>
       </c>
@@ -20745,8 +20910,11 @@
       <c r="M59" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O59" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>49479835</v>
       </c>
@@ -20771,8 +20939,11 @@
       <c r="M60" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O60" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>49990308</v>
       </c>
@@ -20797,8 +20968,11 @@
       <c r="M61" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O61" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>50843184</v>
       </c>
@@ -20823,8 +20997,11 @@
       <c r="M62" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O62" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>49764477</v>
       </c>
@@ -20849,8 +21026,11 @@
       <c r="M63" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O63" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>49805758</v>
       </c>
@@ -20875,8 +21055,11 @@
       <c r="M64" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O64" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>51446367</v>
       </c>
@@ -20901,8 +21084,11 @@
       <c r="M65" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O65" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>51134952</v>
       </c>
@@ -20927,8 +21113,11 @@
       <c r="M66" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O66" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>49866706</v>
       </c>
@@ -20953,8 +21142,11 @@
       <c r="M67" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O67" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>50305974</v>
       </c>
@@ -20979,8 +21171,11 @@
       <c r="M68" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O68" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>49233626</v>
       </c>
@@ -21005,8 +21200,11 @@
       <c r="M69" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O69" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>51225387</v>
       </c>
@@ -21031,8 +21229,14 @@
       <c r="M70" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O70" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>50144057</v>
       </c>
@@ -21057,8 +21261,14 @@
       <c r="M71" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O71" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>49042042</v>
       </c>
@@ -21083,8 +21293,11 @@
       <c r="M72" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O72" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>50418224</v>
       </c>
@@ -21109,8 +21322,11 @@
       <c r="M73" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O73" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>49463643</v>
       </c>
@@ -21135,8 +21351,14 @@
       <c r="M74" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O74" s="1">
+        <v>7</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>49058842</v>
       </c>
@@ -21161,8 +21383,15 @@
       <c r="M75" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O75" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P75" s="7"/>
+      <c r="Q75" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>51236649</v>
       </c>
@@ -21187,8 +21416,11 @@
       <c r="M76" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O76" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>51143165</v>
       </c>
@@ -21213,8 +21445,15 @@
       <c r="M77" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O77" s="3">
+        <v>8</v>
+      </c>
+      <c r="P77" s="4"/>
+      <c r="Q77" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>51014770</v>
       </c>
@@ -21239,8 +21478,11 @@
       <c r="M78" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O78" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>50455655</v>
       </c>
@@ -21265,8 +21507,11 @@
       <c r="M79" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O79" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>49963794</v>
       </c>
@@ -21291,8 +21536,11 @@
       <c r="M80" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O80" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>50293810</v>
       </c>
@@ -21317,8 +21565,11 @@
       <c r="M81" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O81" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>49062430</v>
       </c>
@@ -21347,7 +21598,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>51113643</v>
       </c>
@@ -21372,8 +21623,11 @@
       <c r="M83" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O83" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>50110968</v>
       </c>
@@ -21398,8 +21652,14 @@
       <c r="M84" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O84" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>49923463</v>
       </c>
@@ -21424,8 +21684,11 @@
       <c r="M85" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O85" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>49494288</v>
       </c>
@@ -21450,8 +21713,11 @@
       <c r="M86" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O86" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>51099435</v>
       </c>
@@ -21476,8 +21742,14 @@
       <c r="M87" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O87" s="1">
+        <v>7</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>50194995</v>
       </c>
@@ -21502,8 +21774,14 @@
       <c r="M88" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O88" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>50909015</v>
       </c>
@@ -21528,8 +21806,11 @@
       <c r="M89" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O89" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>50121564</v>
       </c>
@@ -21554,8 +21835,11 @@
       <c r="M90" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O90" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>51399027</v>
       </c>
@@ -21580,8 +21864,11 @@
       <c r="M91" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O91" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>50805034</v>
       </c>
@@ -21606,8 +21893,11 @@
       <c r="M92" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O92" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>50698686</v>
       </c>
@@ -21632,8 +21922,11 @@
       <c r="M93" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O93" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>50503082</v>
       </c>
@@ -21658,8 +21951,12 @@
       <c r="M94" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O94" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="P94" s="7"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>50938201</v>
       </c>
@@ -21684,8 +21981,11 @@
       <c r="M95" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O95" s="6" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>49407376</v>
       </c>
@@ -21709,6 +22009,9 @@
       </c>
       <c r="M96" t="s">
         <v>864</v>
+      </c>
+      <c r="O96" s="6" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -21736,6 +22039,9 @@
       <c r="M97" t="s">
         <v>865</v>
       </c>
+      <c r="O97" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98">
@@ -21762,6 +22068,9 @@
       <c r="M98" t="s">
         <v>866</v>
       </c>
+      <c r="O98" s="6" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99">
@@ -21788,6 +22097,15 @@
       <c r="M99" t="s">
         <v>96</v>
       </c>
+      <c r="O99" s="4">
+        <v>16</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>1691</v>
+      </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100">
@@ -21842,6 +22160,9 @@
       </c>
       <c r="M101" t="s">
         <v>867</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">

--- a/Iter2-analysisPairs.xlsx
+++ b/Iter2-analysisPairs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C7B9DC-0E8B-4498-8A67-AA62106D04C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F56FAFE-878D-47D8-B5D4-98B64337EB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="1692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="1692">
   <si>
     <t>UID</t>
   </si>
@@ -4957,15 +4957,9 @@
     <t>Weird one. Issue doesn't seem very related to email but the patch does seem related</t>
   </si>
   <si>
-    <t>7 or 4</t>
-  </si>
-  <si>
     <t>Could be related, but probably is another ADD that is related to issue ADD</t>
   </si>
   <si>
-    <t>Could be related to a feature group, but it is a feature with almost 600 subtasks</t>
-  </si>
-  <si>
     <t>broken email thread</t>
   </si>
   <si>
@@ -4990,9 +4984,6 @@
     <t>email is just sent twice instead of replied to</t>
   </si>
   <si>
-    <t>6 or 3</t>
-  </si>
-  <si>
     <t>asks for review</t>
   </si>
   <si>
@@ -5110,13 +5101,22 @@
     <t>precursor to rhino/tokenAuth</t>
   </si>
   <si>
-    <t>Is related but difficult to judge how</t>
-  </si>
-  <si>
     <t>Merge into trunk.</t>
   </si>
   <si>
     <t>CEP-19, which is build ontop of CEP-11, making it difficult. If we look at CEP-19 in a void it should be pattern 8 but it has the wrong issue</t>
+  </si>
+  <si>
+    <t>tot.</t>
+  </si>
+  <si>
+    <t>no.related</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>Talks about releasing jira as new project</t>
   </si>
 </sst>
 </file>
@@ -5232,6 +5232,2302 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ArchIssuesAllEmails!$X$2:$X$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81818181818181823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88235294117647056</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86956521739130432</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.85185185185185186</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.86206896551724133</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83870967741935487</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.78787878787878785</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76470588235294112</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.78378378378378377</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76315789473684215</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74358974358974361</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.73170731707317072</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.73809523809523814</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.72093023255813948</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.72727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.71111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.69565217391304346</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68085106382978722</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.69387755102040816</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.65384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.64150943396226412</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.62962962962962965</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.61818181818181817</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.63157894736842102</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63793103448275867</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.6271186440677966</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60655737704918034</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61290322580645162</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61904761904761907</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.609375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.59090909090909094</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.58208955223880599</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.57352941176470584</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.56521739130434778</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.55714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.54929577464788737</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.53424657534246578</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.54054054054054057</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.53333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.52631578947368418</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.53246753246753242</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.52564102564102566</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.53164556962025311</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.51851851851851849</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.51219512195121952</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.50602409638554213</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.49411764705882355</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.4942528735632184</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.48863636363636365</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.48314606741573035</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.4777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.47252747252747251</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.46739130434782611</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.46236559139784944</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.45744680851063829</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.45263157894736844</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.44791666666666669</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.44329896907216493</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.43877551020408162</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.43434343434343436</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B872-4E22-BEE4-B022C4156569}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1220513504"/>
+        <c:axId val="1220512544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1220513504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1220512544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1220512544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1220513504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ArchEmailsAllIssues!$X$2:$X$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81818181818181823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88235294117647056</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.89473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.90476190476190477</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82608695652173914</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76923076923076927</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75862068965517238</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.73333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70967741935483875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69696969696969702</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67647058823529416</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.65714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64864864864864868</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65789473684210531</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64102564102564108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6097560975609756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.59523809523809523</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.58139534883720934</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.59090909090909094</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.57777777777777772</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.56521739130434778</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.55319148936170215</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.54166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.53061224489795922</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.52941176470588236</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51923076923076927</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.50943396226415094</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.51851851851851849</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.52727272727272723</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.52631578947368418</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.51724137931034486</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.50847457627118642</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49180327868852458</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.4838709677419355</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.47619047619047616</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.46875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.46153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.45454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.44776119402985076</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.44117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.43478260869565216</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.44285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.43661971830985913</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.45205479452054792</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.44594594594594594</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.44736842105263158</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.44155844155844154</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.4358974358974359</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.43037974683544306</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.41975308641975306</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.41463414634146339</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.42168674698795183</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.41176470588235292</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.41860465116279072</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.42528735632183906</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.42045454545454547</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.4157303370786517</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.41111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.40659340659340659</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.40217391304347827</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.39784946236559138</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.39361702127659576</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.38947368421052631</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.38541666666666669</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.38144329896907214</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.38775510204081631</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.38383838383838381</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-915A-48E5-8424-CA363EE955B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1223374848"/>
+        <c:axId val="1223375328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1223374848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1223375328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1223375328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1223374848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF87C28E-FA75-C354-CE9E-29DFF6F3FD96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>295102</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>74814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>599902</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFA046E-8D43-CA0D-7DBB-47C56FDDF075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5497,15 +7793,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T501"/>
+  <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M128" sqref="M128"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X101" sqref="X2:X101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5533,8 +7829,17 @@
       <c r="O1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>13092036</v>
       </c>
@@ -5562,8 +7867,18 @@
       <c r="O2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f>W2/V2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>14554956</v>
       </c>
@@ -5591,8 +7906,19 @@
       <c r="O3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W34" si="0">W2+(IF(ISNUMBER(O3),1,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X66" si="1">W3/V3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12486517</v>
       </c>
@@ -5620,8 +7946,19 @@
       <c r="O4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13205907</v>
       </c>
@@ -5649,8 +7986,19 @@
       <c r="O5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12657449</v>
       </c>
@@ -5678,8 +8026,19 @@
       <c r="O6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13433108</v>
       </c>
@@ -5707,8 +8066,19 @@
       <c r="O7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10836145</v>
       </c>
@@ -5736,8 +8106,19 @@
       <c r="O8" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14561037</v>
       </c>
@@ -5765,8 +8146,19 @@
       <c r="O9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10776841</v>
       </c>
@@ -5795,10 +8187,21 @@
         <v>1632</v>
       </c>
       <c r="Q10" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1643</v>
+      </c>
+      <c r="V10">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14775869</v>
       </c>
@@ -5826,8 +8229,19 @@
       <c r="O11" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11985579</v>
       </c>
@@ -5856,10 +8270,21 @@
         <v>1632</v>
       </c>
       <c r="Q12" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1644</v>
+      </c>
+      <c r="V12">
+        <v>11</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12557947</v>
       </c>
@@ -5888,10 +8313,21 @@
         <v>3</v>
       </c>
       <c r="Q13" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1645</v>
+      </c>
+      <c r="V13">
+        <v>12</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12323126</v>
       </c>
@@ -5919,8 +8355,19 @@
       <c r="O14" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V14">
+        <v>13</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12323170</v>
       </c>
@@ -5949,10 +8396,21 @@
         <v>3</v>
       </c>
       <c r="Q15" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1646</v>
+      </c>
+      <c r="V15">
+        <v>14</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12558047</v>
       </c>
@@ -5980,8 +8438,19 @@
       <c r="O16" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V16">
+        <v>15</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12252317</v>
       </c>
@@ -6009,8 +8478,19 @@
       <c r="O17" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V17">
+        <v>16</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12302599</v>
       </c>
@@ -6038,8 +8518,19 @@
       <c r="O18" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V18">
+        <v>17</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14424447</v>
       </c>
@@ -6067,8 +8558,19 @@
       <c r="O19" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V19">
+        <v>18</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12251608</v>
       </c>
@@ -6096,8 +8598,19 @@
       <c r="O20" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V20">
+        <v>19</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12845642</v>
       </c>
@@ -6122,14 +8635,25 @@
       <c r="M21" t="s">
         <v>220</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>1649</v>
+      <c r="O21" s="3">
+        <v>3</v>
       </c>
       <c r="Q21" t="s">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1647</v>
+      </c>
+      <c r="V21">
+        <v>20</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13127786</v>
       </c>
@@ -6159,10 +8683,21 @@
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1648</v>
+      </c>
+      <c r="V22">
+        <v>21</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12970464</v>
       </c>
@@ -6193,8 +8728,19 @@
       <c r="P23" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V23">
+        <v>22</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>0.86363636363636365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13544080</v>
       </c>
@@ -6226,10 +8772,21 @@
         <v>1632</v>
       </c>
       <c r="Q24" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1649</v>
+      </c>
+      <c r="V24">
+        <v>23</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>0.86956521739130432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12793487</v>
       </c>
@@ -6257,8 +8814,19 @@
       <c r="O25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V25">
+        <v>24</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>13343773</v>
       </c>
@@ -6286,8 +8854,19 @@
       <c r="O26" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V26">
+        <v>25</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11507874</v>
       </c>
@@ -6315,8 +8894,19 @@
       <c r="O27" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V27">
+        <v>26</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="1"/>
+        <v>0.88461538461538458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11264129</v>
       </c>
@@ -6345,10 +8935,21 @@
         <v>1632</v>
       </c>
       <c r="Q28" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1650</v>
+      </c>
+      <c r="V28">
+        <v>27</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="1"/>
+        <v>0.85185185185185186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>11494764</v>
       </c>
@@ -6376,8 +8977,19 @@
       <c r="O29" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V29">
+        <v>28</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12967048</v>
       </c>
@@ -6405,8 +9017,19 @@
       <c r="O30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V30">
+        <v>29</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="1"/>
+        <v>0.86206896551724133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>13052297</v>
       </c>
@@ -6434,8 +9057,19 @@
       <c r="O31" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V31">
+        <v>30</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="1"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>13461376</v>
       </c>
@@ -6465,10 +9099,21 @@
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1638</v>
+      </c>
+      <c r="V32">
+        <v>31</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="1"/>
+        <v>0.83870967741935487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>11954030</v>
       </c>
@@ -6498,10 +9143,21 @@
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1638</v>
+      </c>
+      <c r="V33">
+        <v>32</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="1"/>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14416264</v>
       </c>
@@ -6530,10 +9186,21 @@
         <v>1634</v>
       </c>
       <c r="Q34" t="s">
-        <v>1654</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1651</v>
+      </c>
+      <c r="V34">
+        <v>33</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="1"/>
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12793497</v>
       </c>
@@ -6563,10 +9230,21 @@
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1652</v>
+      </c>
+      <c r="V35">
+        <v>34</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ref="W35:W66" si="2">W34+(IF(ISNUMBER(O35),1,0))</f>
+        <v>26</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="1"/>
+        <v>0.76470588235294112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12237086</v>
       </c>
@@ -6594,8 +9272,19 @@
       <c r="O36" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V36">
+        <v>35</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="1"/>
+        <v>0.77142857142857146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>14750408</v>
       </c>
@@ -6625,10 +9314,21 @@
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1653</v>
+      </c>
+      <c r="V37">
+        <v>36</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>13804808</v>
       </c>
@@ -6656,8 +9356,19 @@
       <c r="O38" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V38">
+        <v>37</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="1"/>
+        <v>0.78378378378378377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12004875</v>
       </c>
@@ -6687,10 +9398,21 @@
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1638</v>
+      </c>
+      <c r="V39">
+        <v>38</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="1"/>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>11330689</v>
       </c>
@@ -6719,10 +9441,21 @@
         <v>1632</v>
       </c>
       <c r="Q40" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1654</v>
+      </c>
+      <c r="V40">
+        <v>39</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="1"/>
+        <v>0.74358974358974361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12449780</v>
       </c>
@@ -6750,8 +9483,19 @@
       <c r="O41" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V41">
+        <v>40</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>11915674</v>
       </c>
@@ -6779,8 +9523,19 @@
       <c r="O42" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V42">
+        <v>41</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="1"/>
+        <v>0.73170731707317072</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14668890</v>
       </c>
@@ -6808,14 +9563,22 @@
       <c r="O43" s="3">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>7</v>
-      </c>
       <c r="Q43" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1655</v>
+      </c>
+      <c r="V43">
+        <v>42</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="1"/>
+        <v>0.73809523809523814</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14174643</v>
       </c>
@@ -6844,10 +9607,21 @@
         <v>1634</v>
       </c>
       <c r="Q44" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1657</v>
+      </c>
+      <c r="V44">
+        <v>43</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="1"/>
+        <v>0.72093023255813948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>13447668</v>
       </c>
@@ -6875,8 +9649,19 @@
       <c r="O45" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V45">
+        <v>44</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="1"/>
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>11892874</v>
       </c>
@@ -6904,8 +9689,19 @@
       <c r="O46" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V46">
+        <v>45</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="1"/>
+        <v>0.71111111111111114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11953907</v>
       </c>
@@ -6933,8 +9729,19 @@
       <c r="O47" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V47">
+        <v>46</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="1"/>
+        <v>0.69565217391304346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11228888</v>
       </c>
@@ -6962,8 +9769,19 @@
       <c r="O48" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V48">
+        <v>47</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="1"/>
+        <v>0.68085106382978722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13534513</v>
       </c>
@@ -6995,10 +9813,21 @@
         <v>1632</v>
       </c>
       <c r="Q49" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1656</v>
+      </c>
+      <c r="V49">
+        <v>48</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="1"/>
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>11793443</v>
       </c>
@@ -7026,8 +9855,19 @@
       <c r="O50" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V50">
+        <v>49</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="1"/>
+        <v>0.69387755102040816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>12767710</v>
       </c>
@@ -7056,10 +9896,21 @@
         <v>1634</v>
       </c>
       <c r="Q51" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1657</v>
+      </c>
+      <c r="V51">
+        <v>50</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>14426263</v>
       </c>
@@ -7087,8 +9938,19 @@
       <c r="O52" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V52">
+        <v>51</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13127865</v>
       </c>
@@ -7116,8 +9978,19 @@
       <c r="O53" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V53">
+        <v>52</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="1"/>
+        <v>0.65384615384615385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>13052851</v>
       </c>
@@ -7147,10 +10020,21 @@
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1638</v>
+      </c>
+      <c r="V54">
+        <v>53</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="1"/>
+        <v>0.64150943396226412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>13735118</v>
       </c>
@@ -7181,8 +10065,19 @@
       <c r="P55" s="5" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V55">
+        <v>54</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="1"/>
+        <v>0.62962962962962965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>11197509</v>
       </c>
@@ -7210,8 +10105,19 @@
       <c r="O56" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V56">
+        <v>55</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="1"/>
+        <v>0.61818181818181817</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>12855806</v>
       </c>
@@ -7240,10 +10146,21 @@
         <v>7</v>
       </c>
       <c r="Q57" t="s">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1658</v>
+      </c>
+      <c r="V57">
+        <v>56</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12569172</v>
       </c>
@@ -7272,10 +10189,21 @@
         <v>7</v>
       </c>
       <c r="Q58" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1659</v>
+      </c>
+      <c r="V58">
+        <v>57</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="1"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>11854910</v>
       </c>
@@ -7303,8 +10231,19 @@
       <c r="O59" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V59">
+        <v>58</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="1"/>
+        <v>0.63793103448275867</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>11212950</v>
       </c>
@@ -7333,10 +10272,21 @@
         <v>1634</v>
       </c>
       <c r="Q60" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1660</v>
+      </c>
+      <c r="V60">
+        <v>59</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="1"/>
+        <v>0.6271186440677966</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12642695</v>
       </c>
@@ -7368,10 +10318,21 @@
         <v>1632</v>
       </c>
       <c r="Q61" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1661</v>
+      </c>
+      <c r="V61">
+        <v>60</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="1"/>
+        <v>0.6166666666666667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14849807</v>
       </c>
@@ -7401,10 +10362,21 @@
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1662</v>
+      </c>
+      <c r="V62">
+        <v>61</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="1"/>
+        <v>0.60655737704918034</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>12979152</v>
       </c>
@@ -7432,8 +10404,19 @@
       <c r="O63" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V63">
+        <v>62</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="1"/>
+        <v>0.61290322580645162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>13758202</v>
       </c>
@@ -7461,8 +10444,19 @@
       <c r="O64" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V64">
+        <v>63</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="1"/>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12089037</v>
       </c>
@@ -7490,8 +10484,19 @@
       <c r="O65" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V65">
+        <v>64</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="1"/>
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14433747</v>
       </c>
@@ -7521,10 +10526,21 @@
       </c>
       <c r="P66" s="8"/>
       <c r="Q66" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1663</v>
+      </c>
+      <c r="V66">
+        <v>65</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12787447</v>
       </c>
@@ -7552,8 +10568,19 @@
       <c r="O67" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V67">
+        <v>66</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W101" si="3">W66+(IF(ISNUMBER(O67),1,0))</f>
+        <v>39</v>
+      </c>
+      <c r="X67">
+        <f t="shared" ref="X67:X101" si="4">W67/V67</f>
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>14038395</v>
       </c>
@@ -7583,10 +10610,21 @@
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1669</v>
+      </c>
+      <c r="V68">
+        <v>67</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="4"/>
+        <v>0.58208955223880599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>11892353</v>
       </c>
@@ -7615,10 +10653,21 @@
         <v>1634</v>
       </c>
       <c r="Q69" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1664</v>
+      </c>
+      <c r="V69">
+        <v>68</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="4"/>
+        <v>0.57352941176470584</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>12020353</v>
       </c>
@@ -7646,8 +10695,19 @@
       <c r="O70" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V70">
+        <v>69</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="4"/>
+        <v>0.56521739130434778</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10965255</v>
       </c>
@@ -7675,8 +10735,19 @@
       <c r="O71" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V71">
+        <v>70</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="4"/>
+        <v>0.55714285714285716</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>10702762</v>
       </c>
@@ -7705,10 +10776,21 @@
         <v>1634</v>
       </c>
       <c r="Q72" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1672</v>
+      </c>
+      <c r="V72">
+        <v>71</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="4"/>
+        <v>0.54929577464788737</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>13393067</v>
       </c>
@@ -7737,8 +10819,19 @@
         <v>1634</v>
       </c>
       <c r="P73" s="7"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V73">
+        <v>72</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="4"/>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14762221</v>
       </c>
@@ -7766,8 +10859,19 @@
       <c r="O74" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V74">
+        <v>73</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="4"/>
+        <v>0.53424657534246578</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14061964</v>
       </c>
@@ -7796,8 +10900,19 @@
         <v>1</v>
       </c>
       <c r="P75" s="9"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V75">
+        <v>74</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="4"/>
+        <v>0.54054054054054057</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>13231155</v>
       </c>
@@ -7826,10 +10941,21 @@
         <v>1632</v>
       </c>
       <c r="Q76" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1678</v>
+      </c>
+      <c r="V76">
+        <v>75</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="4"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>11661837</v>
       </c>
@@ -7857,8 +10983,19 @@
       <c r="O77" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V77">
+        <v>76</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="4"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>11140388</v>
       </c>
@@ -7886,8 +11023,19 @@
       <c r="O78" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V78">
+        <v>77</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="4"/>
+        <v>0.53246753246753242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>11962860</v>
       </c>
@@ -7915,8 +11063,19 @@
       <c r="O79" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V79">
+        <v>78</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="4"/>
+        <v>0.52564102564102566</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>13250802</v>
       </c>
@@ -7944,8 +11103,19 @@
       <c r="O80" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V80">
+        <v>79</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="4"/>
+        <v>0.53164556962025311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14364566</v>
       </c>
@@ -7973,8 +11143,19 @@
       <c r="O81" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V81">
+        <v>80</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="4"/>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>13073235</v>
       </c>
@@ -8002,8 +11183,19 @@
       <c r="O82" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V82">
+        <v>81</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="4"/>
+        <v>0.51851851851851849</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>10763987</v>
       </c>
@@ -8031,8 +11223,19 @@
       <c r="O83" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V83">
+        <v>82</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="4"/>
+        <v>0.51219512195121952</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>10729578</v>
       </c>
@@ -8062,10 +11265,21 @@
       </c>
       <c r="P84" s="7"/>
       <c r="Q84" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1679</v>
+      </c>
+      <c r="V84">
+        <v>83</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="4"/>
+        <v>0.50602409638554213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>13230744</v>
       </c>
@@ -8094,10 +11308,21 @@
         <v>1634</v>
       </c>
       <c r="Q85" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1680</v>
+      </c>
+      <c r="V85">
+        <v>84</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>12022934</v>
       </c>
@@ -8125,8 +11350,19 @@
       <c r="O86" s="5" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V86">
+        <v>85</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="4"/>
+        <v>0.49411764705882355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14080392</v>
       </c>
@@ -8154,8 +11390,19 @@
       <c r="O87" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V87">
+        <v>86</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>10649881</v>
       </c>
@@ -8183,8 +11430,19 @@
       <c r="O88" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V88">
+        <v>87</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="4"/>
+        <v>0.4942528735632184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>12582951</v>
       </c>
@@ -8213,8 +11471,19 @@
         <v>1634</v>
       </c>
       <c r="T89" s="2"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V89">
+        <v>88</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="4"/>
+        <v>0.48863636363636365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>14034610</v>
       </c>
@@ -8242,8 +11511,19 @@
       <c r="O90" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V90">
+        <v>89</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="4"/>
+        <v>0.48314606741573035</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>13678647</v>
       </c>
@@ -8273,10 +11553,21 @@
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1681</v>
+      </c>
+      <c r="V91">
+        <v>90</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="4"/>
+        <v>0.4777777777777778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>13076272</v>
       </c>
@@ -8304,8 +11595,19 @@
       <c r="O92" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V92">
+        <v>91</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="4"/>
+        <v>0.47252747252747251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>12253759</v>
       </c>
@@ -8333,8 +11635,19 @@
       <c r="O93" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V93">
+        <v>92</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="4"/>
+        <v>0.46739130434782611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>14372716</v>
       </c>
@@ -8362,8 +11675,19 @@
       <c r="O94" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V94">
+        <v>93</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="4"/>
+        <v>0.46236559139784944</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>14970598</v>
       </c>
@@ -8391,8 +11715,19 @@
       <c r="O95" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="V95">
+        <v>94</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="4"/>
+        <v>0.45744680851063829</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>14847622</v>
       </c>
@@ -8421,8 +11756,19 @@
         <v>1634</v>
       </c>
       <c r="P96" s="7"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V96">
+        <v>95</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="4"/>
+        <v>0.45263157894736844</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>13214477</v>
       </c>
@@ -8450,8 +11796,19 @@
       <c r="O97" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V97">
+        <v>96</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="4"/>
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>13199863</v>
       </c>
@@ -8479,8 +11836,19 @@
       <c r="O98" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V98">
+        <v>97</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="4"/>
+        <v>0.44329896907216493</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>12180998</v>
       </c>
@@ -8508,8 +11876,19 @@
       <c r="O99" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V99">
+        <v>98</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="4"/>
+        <v>0.43877551020408162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>11883171</v>
       </c>
@@ -8537,8 +11916,19 @@
       <c r="O100" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V100">
+        <v>99</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="4"/>
+        <v>0.43434343434343436</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>12636684</v>
       </c>
@@ -8566,8 +11956,19 @@
       <c r="O101" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V101">
+        <v>100</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="4"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>11084880</v>
       </c>
@@ -8593,7 +11994,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>12979215</v>
       </c>
@@ -8622,7 +12023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>14205068</v>
       </c>
@@ -8648,7 +12049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>11892968</v>
       </c>
@@ -8674,7 +12075,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14801253</v>
       </c>
@@ -8700,7 +12101,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>13661842</v>
       </c>
@@ -8726,7 +12127,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>13646716</v>
       </c>
@@ -8756,10 +12157,10 @@
       </c>
       <c r="P108" s="7"/>
       <c r="Q108" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>12865307</v>
       </c>
@@ -8785,7 +12186,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>13523760</v>
       </c>
@@ -8811,7 +12212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>12854603</v>
       </c>
@@ -8837,7 +12238,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14141169</v>
       </c>
@@ -9204,7 +12605,7 @@
         <v>1632</v>
       </c>
       <c r="Q125" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
@@ -9236,7 +12637,7 @@
         <v>1632</v>
       </c>
       <c r="Q126" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
@@ -9559,7 +12960,7 @@
       </c>
       <c r="P138" s="7"/>
       <c r="Q138" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
@@ -11135,7 +14536,7 @@
       </c>
       <c r="P198" s="7"/>
       <c r="Q198" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
@@ -13708,7 +17109,7 @@
       </c>
       <c r="P296" s="7"/>
       <c r="Q296" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.3">
@@ -13897,7 +17298,7 @@
       </c>
       <c r="P303" s="7"/>
       <c r="Q303" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.3">
@@ -14062,7 +17463,7 @@
         <v>1632</v>
       </c>
       <c r="Q309" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.3">
@@ -16004,7 +19405,7 @@
         <v>7</v>
       </c>
       <c r="Q383" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.3">
@@ -16088,7 +19489,7 @@
         <v>1634</v>
       </c>
       <c r="Q386" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.3">
@@ -17374,7 +20775,7 @@
         <v>1634</v>
       </c>
       <c r="Q435" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="436" spans="1:17" x14ac:dyDescent="0.3">
@@ -19096,20 +22497,21 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
-  <dimension ref="A1:Q501"/>
+  <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O101" sqref="O101"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19137,8 +22539,17 @@
       <c r="O1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50886770</v>
       </c>
@@ -19166,8 +22577,18 @@
       <c r="O2" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <f>W2/V2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>49076734</v>
       </c>
@@ -19195,8 +22616,19 @@
       <c r="O3" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W34" si="0">W2+(IF(ISNUMBER(O3),1,0))</f>
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X66" si="1">W3/V3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>49522668</v>
       </c>
@@ -19224,8 +22656,19 @@
       <c r="O4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>49462093</v>
       </c>
@@ -19256,8 +22699,19 @@
       <c r="P5" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>51124793</v>
       </c>
@@ -19285,8 +22739,19 @@
       <c r="O6" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>51277528</v>
       </c>
@@ -19317,8 +22782,19 @@
       <c r="Q7" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>49315724</v>
       </c>
@@ -19349,8 +22825,19 @@
       <c r="P8" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>51145611</v>
       </c>
@@ -19378,8 +22865,19 @@
       <c r="O9" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>49463404</v>
       </c>
@@ -19410,8 +22908,19 @@
       <c r="P10" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V10">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>50808963</v>
       </c>
@@ -19442,8 +22951,19 @@
       <c r="P11" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50263387</v>
       </c>
@@ -19471,8 +22991,19 @@
       <c r="O12" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V12">
+        <v>11</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>49468393</v>
       </c>
@@ -19503,8 +23034,19 @@
       <c r="P13" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V13">
+        <v>12</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>49332643</v>
       </c>
@@ -19535,8 +23077,19 @@
       <c r="P14" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V14">
+        <v>13</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>49988950</v>
       </c>
@@ -19567,8 +23120,19 @@
       <c r="P15" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V15">
+        <v>14</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>49162269</v>
       </c>
@@ -19596,8 +23160,19 @@
       <c r="O16" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V16">
+        <v>15</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>51302093</v>
       </c>
@@ -19625,8 +23200,19 @@
       <c r="O17" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V17">
+        <v>16</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>49795400</v>
       </c>
@@ -19654,8 +23240,19 @@
       <c r="O18" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V18">
+        <v>17</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>49716189</v>
       </c>
@@ -19686,8 +23283,19 @@
       <c r="P19" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V19">
+        <v>18</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>50797738</v>
       </c>
@@ -19718,8 +23326,19 @@
       <c r="P20" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V20">
+        <v>19</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>49755962</v>
       </c>
@@ -19744,11 +23363,22 @@
       <c r="M21" t="s">
         <v>111</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O21" s="3">
+        <v>7</v>
+      </c>
+      <c r="V21">
+        <v>20</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>49463254</v>
       </c>
@@ -19779,8 +23409,19 @@
       <c r="P22" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V22">
+        <v>21</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>49260166</v>
       </c>
@@ -19810,10 +23451,21 @@
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1638</v>
+      </c>
+      <c r="V23">
+        <v>22</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>0.86363636363636365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>49873268</v>
       </c>
@@ -19841,8 +23493,19 @@
       <c r="O24" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V24">
+        <v>23</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>0.82608695652173914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>49466859</v>
       </c>
@@ -19870,8 +23533,19 @@
       <c r="O25" s="5" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V25">
+        <v>24</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="1"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>50489679</v>
       </c>
@@ -19899,8 +23573,19 @@
       <c r="O26" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V26">
+        <v>25</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>51002211</v>
       </c>
@@ -19928,8 +23613,19 @@
       <c r="O27" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V27">
+        <v>26</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>50418144</v>
       </c>
@@ -19954,17 +23650,25 @@
       <c r="M28" t="s">
         <v>100</v>
       </c>
-      <c r="O28" s="6" t="s">
-        <v>1634</v>
-      </c>
-      <c r="P28" s="7">
-        <v>7</v>
+      <c r="O28" s="3">
+        <v>6</v>
       </c>
       <c r="Q28" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1691</v>
+      </c>
+      <c r="V28">
+        <v>27</v>
+      </c>
+      <c r="W28">
+        <f>W27+(IF(ISNUMBER(O28),1,0))</f>
+        <v>21</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>49462956</v>
       </c>
@@ -19995,8 +23699,19 @@
       <c r="P29" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V29">
+        <v>28</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>49941753</v>
       </c>
@@ -20024,8 +23739,19 @@
       <c r="O30" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V30">
+        <v>29</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="1"/>
+        <v>0.75862068965517238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>50464508</v>
       </c>
@@ -20053,8 +23779,19 @@
       <c r="O31" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V31">
+        <v>30</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="1"/>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>49982054</v>
       </c>
@@ -20082,8 +23819,19 @@
       <c r="O32" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V32">
+        <v>31</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="1"/>
+        <v>0.70967741935483875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>50636960</v>
       </c>
@@ -20112,10 +23860,21 @@
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1639</v>
+      </c>
+      <c r="V33">
+        <v>32</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="1"/>
+        <v>0.71875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>50129969</v>
       </c>
@@ -20145,10 +23904,21 @@
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1638</v>
+      </c>
+      <c r="V34">
+        <v>33</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="1"/>
+        <v>0.69696969696969702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>50843984</v>
       </c>
@@ -20178,10 +23948,21 @@
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1640</v>
+      </c>
+      <c r="V35">
+        <v>34</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ref="W35:W66" si="2">W34+(IF(ISNUMBER(O35),1,0))</f>
+        <v>23</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="1"/>
+        <v>0.67647058823529416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>49739365</v>
       </c>
@@ -20213,10 +23994,21 @@
         <v>1632</v>
       </c>
       <c r="Q36" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1641</v>
+      </c>
+      <c r="V36">
+        <v>35</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="1"/>
+        <v>0.65714285714285714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>49361473</v>
       </c>
@@ -20245,10 +24037,21 @@
         <v>1632</v>
       </c>
       <c r="Q37" t="s">
-        <v>1644</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1642</v>
+      </c>
+      <c r="V37">
+        <v>36</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="1"/>
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>49468164</v>
       </c>
@@ -20279,8 +24082,19 @@
       <c r="P38" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V38">
+        <v>37</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="1"/>
+        <v>0.64864864864864868</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>50637339</v>
       </c>
@@ -20308,8 +24122,19 @@
       <c r="O39" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V39">
+        <v>38</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="1"/>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>49922346</v>
       </c>
@@ -20339,10 +24164,21 @@
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" t="s">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1638</v>
+      </c>
+      <c r="V40">
+        <v>39</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="1"/>
+        <v>0.64102564102564108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>50498219</v>
       </c>
@@ -20370,8 +24206,19 @@
       <c r="O41" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V41">
+        <v>40</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>49375720</v>
       </c>
@@ -20400,10 +24247,21 @@
         <v>1634</v>
       </c>
       <c r="Q42" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1665</v>
+      </c>
+      <c r="V42">
+        <v>41</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="1"/>
+        <v>0.6097560975609756</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>51178175</v>
       </c>
@@ -20431,8 +24289,19 @@
       <c r="O43" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V43">
+        <v>42</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="1"/>
+        <v>0.59523809523809523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>49557327</v>
       </c>
@@ -20460,8 +24329,19 @@
       <c r="O44" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V44">
+        <v>43</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="1"/>
+        <v>0.58139534883720934</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>51150738</v>
       </c>
@@ -20492,8 +24372,19 @@
       <c r="P45" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V45">
+        <v>44</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="1"/>
+        <v>0.59090909090909094</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>50656815</v>
       </c>
@@ -20521,8 +24412,19 @@
       <c r="O46" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V46">
+        <v>45</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>49174790</v>
       </c>
@@ -20554,10 +24456,21 @@
         <v>13</v>
       </c>
       <c r="Q47" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1666</v>
+      </c>
+      <c r="V47">
+        <v>46</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="1"/>
+        <v>0.56521739130434778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50817024</v>
       </c>
@@ -20585,8 +24498,19 @@
       <c r="O48" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V48">
+        <v>47</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="1"/>
+        <v>0.55319148936170215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>50293734</v>
       </c>
@@ -20614,8 +24538,19 @@
       <c r="O49" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V49">
+        <v>48</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49553195</v>
       </c>
@@ -20643,8 +24578,19 @@
       <c r="O50" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V50">
+        <v>49</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="1"/>
+        <v>0.53061224489795922</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50001877</v>
       </c>
@@ -20672,8 +24618,19 @@
       <c r="O51" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V51">
+        <v>50</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49898280</v>
       </c>
@@ -20701,8 +24658,19 @@
       <c r="O52" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V52">
+        <v>51</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="1"/>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>49390419</v>
       </c>
@@ -20730,8 +24698,19 @@
       <c r="O53" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V53">
+        <v>52</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="1"/>
+        <v>0.51923076923076927</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>49724849</v>
       </c>
@@ -20759,8 +24738,19 @@
       <c r="O54" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V54">
+        <v>53</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="1"/>
+        <v>0.50943396226415094</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>49468153</v>
       </c>
@@ -20791,8 +24781,19 @@
       <c r="P55" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V55">
+        <v>54</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="1"/>
+        <v>0.51851851851851849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>50823684</v>
       </c>
@@ -20821,10 +24822,21 @@
         <v>7</v>
       </c>
       <c r="P56" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1667</v>
+      </c>
+      <c r="V56">
+        <v>55</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="1"/>
+        <v>0.52727272727272723</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>50516622</v>
       </c>
@@ -20853,10 +24865,21 @@
         <v>6</v>
       </c>
       <c r="Q57" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1682</v>
+      </c>
+      <c r="V57">
+        <v>56</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="1"/>
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>50817071</v>
       </c>
@@ -20884,8 +24907,19 @@
       <c r="O58" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V58">
+        <v>57</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="1"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>51163957</v>
       </c>
@@ -20913,8 +24947,19 @@
       <c r="O59" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V59">
+        <v>58</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="1"/>
+        <v>0.51724137931034486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>49479835</v>
       </c>
@@ -20942,8 +24987,19 @@
       <c r="O60" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V60">
+        <v>59</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="1"/>
+        <v>0.50847457627118642</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>49990308</v>
       </c>
@@ -20971,8 +25027,19 @@
       <c r="O61" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V61">
+        <v>60</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>50843184</v>
       </c>
@@ -21000,8 +25067,19 @@
       <c r="O62" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V62">
+        <v>61</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="1"/>
+        <v>0.49180327868852458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>49764477</v>
       </c>
@@ -21029,8 +25107,19 @@
       <c r="O63" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V63">
+        <v>62</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="1"/>
+        <v>0.4838709677419355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>49805758</v>
       </c>
@@ -21058,8 +25147,19 @@
       <c r="O64" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V64">
+        <v>63</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="1"/>
+        <v>0.47619047619047616</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>51446367</v>
       </c>
@@ -21087,8 +25187,19 @@
       <c r="O65" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V65">
+        <v>64</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="1"/>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>51134952</v>
       </c>
@@ -21116,8 +25227,19 @@
       <c r="O66" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V66">
+        <v>65</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="1"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>49866706</v>
       </c>
@@ -21145,8 +25267,19 @@
       <c r="O67" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V67">
+        <v>66</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W101" si="3">W66+(IF(ISNUMBER(O67),1,0))</f>
+        <v>30</v>
+      </c>
+      <c r="X67">
+        <f t="shared" ref="X67:X101" si="4">W67/V67</f>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>50305974</v>
       </c>
@@ -21174,8 +25307,19 @@
       <c r="O68" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V68">
+        <v>67</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="4"/>
+        <v>0.44776119402985076</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>49233626</v>
       </c>
@@ -21203,8 +25347,19 @@
       <c r="O69" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V69">
+        <v>68</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="4"/>
+        <v>0.44117647058823528</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>51225387</v>
       </c>
@@ -21233,10 +25388,21 @@
         <v>1632</v>
       </c>
       <c r="Q70" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1683</v>
+      </c>
+      <c r="V70">
+        <v>69</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="4"/>
+        <v>0.43478260869565216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>50144057</v>
       </c>
@@ -21265,10 +25431,21 @@
         <v>4</v>
       </c>
       <c r="Q71" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1684</v>
+      </c>
+      <c r="V71">
+        <v>70</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="4"/>
+        <v>0.44285714285714284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>49042042</v>
       </c>
@@ -21296,8 +25473,19 @@
       <c r="O72" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V72">
+        <v>71</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="4"/>
+        <v>0.43661971830985913</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>50418224</v>
       </c>
@@ -21325,8 +25513,19 @@
       <c r="O73" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V73">
+        <v>72</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="4"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>49463643</v>
       </c>
@@ -21357,8 +25556,19 @@
       <c r="P74" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V74">
+        <v>73</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="4"/>
+        <v>0.45205479452054792</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>49058842</v>
       </c>
@@ -21388,10 +25598,21 @@
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1685</v>
+      </c>
+      <c r="V75">
+        <v>74</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="4"/>
+        <v>0.44594594594594594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>51236649</v>
       </c>
@@ -21419,8 +25640,19 @@
       <c r="O76" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V76">
+        <v>75</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="4"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>51143165</v>
       </c>
@@ -21448,12 +25680,19 @@
       <c r="O77" s="3">
         <v>8</v>
       </c>
-      <c r="P77" s="4"/>
-      <c r="Q77" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V77">
+        <v>76</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="4"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>51014770</v>
       </c>
@@ -21481,8 +25720,19 @@
       <c r="O78" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V78">
+        <v>77</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="4"/>
+        <v>0.44155844155844154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>50455655</v>
       </c>
@@ -21510,8 +25760,19 @@
       <c r="O79" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V79">
+        <v>78</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="4"/>
+        <v>0.4358974358974359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>49963794</v>
       </c>
@@ -21539,8 +25800,19 @@
       <c r="O80" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V80">
+        <v>79</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="4"/>
+        <v>0.43037974683544306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>50293810</v>
       </c>
@@ -21568,8 +25840,19 @@
       <c r="O81" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V81">
+        <v>80</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="4"/>
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>49062430</v>
       </c>
@@ -21597,8 +25880,19 @@
       <c r="O82" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V82">
+        <v>81</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="4"/>
+        <v>0.41975308641975306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>51113643</v>
       </c>
@@ -21626,8 +25920,19 @@
       <c r="O83" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V83">
+        <v>82</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="4"/>
+        <v>0.41463414634146339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>50110968</v>
       </c>
@@ -21656,10 +25961,21 @@
         <v>6</v>
       </c>
       <c r="Q84" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1682</v>
+      </c>
+      <c r="V84">
+        <v>83</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="4"/>
+        <v>0.42168674698795183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>49923463</v>
       </c>
@@ -21687,8 +26003,19 @@
       <c r="O85" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V85">
+        <v>84</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>49494288</v>
       </c>
@@ -21716,8 +26043,19 @@
       <c r="O86" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V86">
+        <v>85</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="4"/>
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>51099435</v>
       </c>
@@ -21748,8 +26086,19 @@
       <c r="P87" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V87">
+        <v>86</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="4"/>
+        <v>0.41860465116279072</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>50194995</v>
       </c>
@@ -21778,10 +26127,21 @@
         <v>6</v>
       </c>
       <c r="Q88" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1686</v>
+      </c>
+      <c r="V88">
+        <v>87</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="4"/>
+        <v>0.42528735632183906</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>50909015</v>
       </c>
@@ -21809,8 +26169,19 @@
       <c r="O89" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V89">
+        <v>88</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="4"/>
+        <v>0.42045454545454547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>50121564</v>
       </c>
@@ -21838,8 +26209,19 @@
       <c r="O90" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V90">
+        <v>89</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="4"/>
+        <v>0.4157303370786517</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>51399027</v>
       </c>
@@ -21867,8 +26249,19 @@
       <c r="O91" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V91">
+        <v>90</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="4"/>
+        <v>0.41111111111111109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>50805034</v>
       </c>
@@ -21896,8 +26289,19 @@
       <c r="O92" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V92">
+        <v>91</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="4"/>
+        <v>0.40659340659340659</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>50698686</v>
       </c>
@@ -21925,8 +26329,19 @@
       <c r="O93" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V93">
+        <v>92</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="4"/>
+        <v>0.40217391304347827</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>50503082</v>
       </c>
@@ -21955,8 +26370,19 @@
         <v>1634</v>
       </c>
       <c r="P94" s="7"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V94">
+        <v>93</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="4"/>
+        <v>0.39784946236559138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>50938201</v>
       </c>
@@ -21984,8 +26410,19 @@
       <c r="O95" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V95">
+        <v>94</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="4"/>
+        <v>0.39361702127659576</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>49407376</v>
       </c>
@@ -22013,8 +26450,19 @@
       <c r="O96" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V96">
+        <v>95</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="4"/>
+        <v>0.38947368421052631</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>50822981</v>
       </c>
@@ -22042,8 +26490,19 @@
       <c r="O97" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V97">
+        <v>96</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="4"/>
+        <v>0.38541666666666669</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>49901779</v>
       </c>
@@ -22071,8 +26530,19 @@
       <c r="O98" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V98">
+        <v>97</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="4"/>
+        <v>0.38144329896907214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>51150836</v>
       </c>
@@ -22104,10 +26574,21 @@
         <v>1634</v>
       </c>
       <c r="Q99" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1687</v>
+      </c>
+      <c r="V99">
+        <v>98</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="4"/>
+        <v>0.38775510204081631</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>50435835</v>
       </c>
@@ -22135,8 +26616,19 @@
       <c r="O100" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V100">
+        <v>99</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="4"/>
+        <v>0.38383838383838381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>49780188</v>
       </c>
@@ -22164,8 +26656,19 @@
       <c r="O101" s="6" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V101">
+        <v>100</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="4"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>50998841</v>
       </c>
@@ -22191,7 +26694,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>49943451</v>
       </c>
@@ -22220,7 +26723,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>51093569</v>
       </c>
@@ -22246,7 +26749,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>49074860</v>
       </c>
@@ -22276,10 +26779,10 @@
       </c>
       <c r="P105" s="7"/>
       <c r="Q105" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>51200830</v>
       </c>
@@ -22305,7 +26808,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>49547147</v>
       </c>
@@ -22331,7 +26834,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>50839471</v>
       </c>
@@ -22357,7 +26860,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>50101608</v>
       </c>
@@ -22383,7 +26886,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50988394</v>
       </c>
@@ -22409,7 +26912,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>50412445</v>
       </c>
@@ -22435,7 +26938,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>49463674</v>
       </c>
@@ -30776,7 +35279,7 @@
         <v>7</v>
       </c>
       <c r="Q431" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="432" spans="1:17" x14ac:dyDescent="0.3">
@@ -32605,5 +37108,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Iter2-analysisPairs.xlsx
+++ b/Iter2-analysisPairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F56FAFE-878D-47D8-B5D4-98B64337EB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A7D3DD-6844-4F53-BB10-6A9D5F868969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchIssuesAllEmails" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="1692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="1693">
   <si>
     <t>UID</t>
   </si>
@@ -5117,6 +5117,9 @@
   </si>
   <si>
     <t>Talks about releasing jira as new project</t>
+  </si>
+  <si>
+    <t>Pattern counts:</t>
   </si>
 </sst>
 </file>
@@ -5232,2302 +5235,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>ArchIssuesAllEmails!$X$2:$X$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.81818181818181823</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.84615384615384615</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.86363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.86956521739130432</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.88461538461538458</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.85185185185185186</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.86206896551724133</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.83870967741935487</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.8125</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.78787878787878785</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.76470588235294112</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.77142857142857146</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.78378378378378377</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.76315789473684215</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.74358974358974361</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.73170731707317072</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.73809523809523814</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.72093023255813948</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.72727272727272729</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.71111111111111114</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.69565217391304346</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.68085106382978722</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.69387755102040816</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.65384615384615385</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.64150943396226412</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.62962962962962965</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.61818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.63157894736842102</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.63793103448275867</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.6271186440677966</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.6166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.60655737704918034</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.61290322580645162</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.61904761904761907</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.609375</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.59090909090909094</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.58208955223880599</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.57352941176470584</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.56521739130434778</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.55714285714285716</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.54929577464788737</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.54166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.53424657534246578</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.54054054054054057</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.53333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.52631578947368418</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.53246753246753242</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.52564102564102566</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.53164556962025311</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.52500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.51851851851851849</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.51219512195121952</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.50602409638554213</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.49411764705882355</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.4942528735632184</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.48863636363636365</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.48314606741573035</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.4777777777777778</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.47252747252747251</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.46739130434782611</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.46236559139784944</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.45744680851063829</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.45263157894736844</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.44791666666666669</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.44329896907216493</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.43877551020408162</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.43434343434343436</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B872-4E22-BEE4-B022C4156569}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1220513504"/>
-        <c:axId val="1220512544"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1220513504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1220512544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1220512544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1220513504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>ArchEmailsAllIssues!$X$2:$X$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.81818181818181823</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.84615384615384615</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.90476190476190477</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.86363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.82608695652173914</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.79166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.76923076923076927</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.7857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.75862068965517238</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.73333333333333328</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.70967741935483875</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.71875</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.69696969696969702</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.67647058823529416</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.65714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.63888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.64864864864864868</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.65789473684210531</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.64102564102564108</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.6097560975609756</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.59523809523809523</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.58139534883720934</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.59090909090909094</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.57777777777777772</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.56521739130434778</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.55319148936170215</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.54166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.53061224489795922</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.52941176470588236</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.51923076923076927</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.50943396226415094</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.51851851851851849</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.52727272727272723</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.5357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.52631578947368418</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.51724137931034486</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.50847457627118642</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.49180327868852458</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.4838709677419355</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.47619047619047616</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.46875</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.46153846153846156</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.45454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.44776119402985076</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.44117647058823528</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.43478260869565216</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.44285714285714284</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.43661971830985913</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.44444444444444442</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.45205479452054792</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.44594594594594594</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.44736842105263158</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.44155844155844154</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.4358974358974359</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.43037974683544306</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.42499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.41975308641975306</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.41463414634146339</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.42168674698795183</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.41176470588235292</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.41860465116279072</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.42528735632183906</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.42045454545454547</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.4157303370786517</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.41111111111111109</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.40659340659340659</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.40217391304347827</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.39784946236559138</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.39361702127659576</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.38947368421052631</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.38541666666666669</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.38144329896907214</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.38775510204081631</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.38383838383838381</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.38</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-915A-48E5-8424-CA363EE955B3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1223374848"/>
-        <c:axId val="1223375328"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1223374848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1223375328"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1223375328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1223374848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>131445</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>436245</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF87C28E-FA75-C354-CE9E-29DFF6F3FD96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>295102</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>74814</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>599902</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>116378</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFA046E-8D43-CA0D-7DBB-47C56FDDF075}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7793,15 +5500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X501"/>
+  <dimension ref="A1:Z501"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X101" sqref="X2:X101"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7838,8 +5545,11 @@
       <c r="X1" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>13092036</v>
       </c>
@@ -7877,8 +5587,15 @@
         <f>W2/V2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <f>COUNTIF(O2:O101,Y2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>14554956</v>
       </c>
@@ -7917,8 +5634,15 @@
         <f t="shared" ref="X3:X66" si="1">W3/V3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <f>COUNTIF(O2:O101,Y3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12486517</v>
       </c>
@@ -7957,8 +5681,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <f>COUNTIF(O2:O101,Y4)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13205907</v>
       </c>
@@ -7997,8 +5728,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <f>COUNTIF(O2:O101,Y5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12657449</v>
       </c>
@@ -8037,8 +5775,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <f>COUNTIF(O2:O101,Y6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13433108</v>
       </c>
@@ -8077,8 +5822,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <f>COUNTIF(O2:O101,Y7)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10836145</v>
       </c>
@@ -8117,8 +5869,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <f>COUNTIF(O2:O101,Y8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14561037</v>
       </c>
@@ -8157,8 +5916,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>9</v>
+      </c>
+      <c r="Z9">
+        <f>COUNTIF(O2:O101,Y9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10776841</v>
       </c>
@@ -8200,8 +5966,15 @@
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <v>11</v>
+      </c>
+      <c r="Z10">
+        <f>COUNTIF(O2:O101,Y10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14775869</v>
       </c>
@@ -8240,8 +6013,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <v>12</v>
+      </c>
+      <c r="Z11">
+        <f>COUNTIF(O2:O101,Y11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11985579</v>
       </c>
@@ -8283,8 +6063,15 @@
         <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <v>13</v>
+      </c>
+      <c r="Z12">
+        <f>COUNTIF(O2:O101,Y12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12557947</v>
       </c>
@@ -8326,8 +6113,15 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13">
+        <v>14</v>
+      </c>
+      <c r="Z13">
+        <f>COUNTIF(O2:O101,Y13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12323126</v>
       </c>
@@ -8366,8 +6160,15 @@
         <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>15</v>
+      </c>
+      <c r="Z14">
+        <f>COUNTIF(O2:O101,Y14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12323170</v>
       </c>
@@ -8409,8 +6210,15 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>16</v>
+      </c>
+      <c r="Z15">
+        <f>COUNTIF(O2:O101,Y15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12558047</v>
       </c>
@@ -22497,21 +20305,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
-  <dimension ref="A1:X501"/>
+  <dimension ref="A1:Z501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P78" sqref="P78"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22548,8 +20355,11 @@
       <c r="X1" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50886770</v>
       </c>
@@ -22587,8 +20397,15 @@
         <f>W2/V2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <f>COUNTIF(O2:O101,Y2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>49076734</v>
       </c>
@@ -22627,8 +20444,15 @@
         <f t="shared" ref="X3:X66" si="1">W3/V3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <f>COUNTIF(O2:O101,Y3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>49522668</v>
       </c>
@@ -22667,8 +20491,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <f>COUNTIF(O2:O101,Y4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>49462093</v>
       </c>
@@ -22710,8 +20541,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <f>COUNTIF(O2:O101,Y5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>51124793</v>
       </c>
@@ -22750,8 +20588,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <f>COUNTIF(O2:O101,Y6)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>51277528</v>
       </c>
@@ -22793,8 +20638,15 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <f>COUNTIF(O2:O101,Y7)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>49315724</v>
       </c>
@@ -22836,8 +20688,15 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="Z8">
+        <f>COUNTIF(O2:O101,Y8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>51145611</v>
       </c>
@@ -22876,8 +20735,15 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>9</v>
+      </c>
+      <c r="Z9">
+        <f>COUNTIF(O2:O101,Y9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>49463404</v>
       </c>
@@ -22919,8 +20785,15 @@
         <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <v>11</v>
+      </c>
+      <c r="Z10">
+        <f>COUNTIF(O2:O101,Y10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>50808963</v>
       </c>
@@ -22962,8 +20835,15 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <v>12</v>
+      </c>
+      <c r="Z11">
+        <f>COUNTIF(O2:O101,Y11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50263387</v>
       </c>
@@ -23002,8 +20882,15 @@
         <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <v>13</v>
+      </c>
+      <c r="Z12">
+        <f>COUNTIF(O2:O101,Y12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>49468393</v>
       </c>
@@ -23045,8 +20932,15 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y13">
+        <v>14</v>
+      </c>
+      <c r="Z13">
+        <f>COUNTIF(O2:O101,Y13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>49332643</v>
       </c>
@@ -23088,8 +20982,15 @@
         <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>15</v>
+      </c>
+      <c r="Z14">
+        <f>COUNTIF(O2:O101,Y14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>49988950</v>
       </c>
@@ -23131,8 +21032,15 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>16</v>
+      </c>
+      <c r="Z15">
+        <f>COUNTIF(O2:O101,Y15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>49162269</v>
       </c>
@@ -37108,6 +35016,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Iter2-analysisPairs.xlsx
+++ b/Iter2-analysisPairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A7D3DD-6844-4F53-BB10-6A9D5F868969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC59A701-250F-4F8F-8507-D0C4026FC8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchIssuesAllEmails" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="1692">
   <si>
     <t>UID</t>
   </si>
@@ -4952,9 +4952,6 @@
   </si>
   <si>
     <t>CEP</t>
-  </si>
-  <si>
-    <t>Weird one. Issue doesn't seem very related to email but the patch does seem related</t>
   </si>
   <si>
     <t>Could be related, but probably is another ADD that is related to issue ADD</t>
@@ -5502,8 +5499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF74" sqref="AF74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5537,16 +5534,16 @@
         <v>8</v>
       </c>
       <c r="V1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="W1" t="s">
         <v>1688</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>1689</v>
       </c>
-      <c r="X1" t="s">
-        <v>1690</v>
-      </c>
       <c r="Y1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -5639,7 +5636,7 @@
       </c>
       <c r="Z3">
         <f>COUNTIF(O2:O101,Y3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -5686,7 +5683,7 @@
       </c>
       <c r="Z4">
         <f>COUNTIF(O2:O101,Y4)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -5780,7 +5777,7 @@
       </c>
       <c r="Z6">
         <f>COUNTIF(O2:O101,Y6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -5827,7 +5824,7 @@
       </c>
       <c r="Z7">
         <f>COUNTIF(O2:O101,Y7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -5953,7 +5950,7 @@
         <v>1632</v>
       </c>
       <c r="Q10" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="V10">
         <v>9</v>
@@ -5971,7 +5968,7 @@
       </c>
       <c r="Z10">
         <f>COUNTIF(O2:O101,Y10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -6050,7 +6047,7 @@
         <v>1632</v>
       </c>
       <c r="Q12" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="V12">
         <v>11</v>
@@ -6100,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="Q13" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="V13">
         <v>12</v>
@@ -6197,7 +6194,7 @@
         <v>3</v>
       </c>
       <c r="Q15" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="V15">
         <v>14</v>
@@ -6324,7 +6321,7 @@
         <v>52</v>
       </c>
       <c r="O18" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V18">
         <v>17</v>
@@ -6447,7 +6444,7 @@
         <v>3</v>
       </c>
       <c r="Q21" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="V21">
         <v>20</v>
@@ -6491,7 +6488,7 @@
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="V22">
         <v>21</v>
@@ -6580,7 +6577,7 @@
         <v>1632</v>
       </c>
       <c r="Q24" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="V24">
         <v>23</v>
@@ -6743,7 +6740,7 @@
         <v>1632</v>
       </c>
       <c r="Q28" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="V28">
         <v>27</v>
@@ -6907,7 +6904,7 @@
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="V32">
         <v>31</v>
@@ -6951,7 +6948,7 @@
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="V33">
         <v>32</v>
@@ -6994,7 +6991,7 @@
         <v>1634</v>
       </c>
       <c r="Q34" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="V34">
         <v>33</v>
@@ -7038,7 +7035,7 @@
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="V35">
         <v>34</v>
@@ -7122,7 +7119,7 @@
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="V37">
         <v>36</v>
@@ -7206,7 +7203,7 @@
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="V39">
         <v>38</v>
@@ -7249,7 +7246,7 @@
         <v>1632</v>
       </c>
       <c r="Q40" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="V40">
         <v>39</v>
@@ -7369,10 +7366,10 @@
         <v>45</v>
       </c>
       <c r="O43" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q43" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="V43">
         <v>42</v>
@@ -7415,7 +7412,7 @@
         <v>1634</v>
       </c>
       <c r="Q44" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="V44">
         <v>43</v>
@@ -7621,7 +7618,7 @@
         <v>1632</v>
       </c>
       <c r="Q49" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="V49">
         <v>48</v>
@@ -7704,7 +7701,7 @@
         <v>1634</v>
       </c>
       <c r="Q51" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="V51">
         <v>50</v>
@@ -7828,7 +7825,7 @@
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="V54">
         <v>53</v>
@@ -7954,7 +7951,7 @@
         <v>7</v>
       </c>
       <c r="Q57" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="V57">
         <v>56</v>
@@ -7997,7 +7994,7 @@
         <v>7</v>
       </c>
       <c r="Q58" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="V58">
         <v>57</v>
@@ -8080,7 +8077,7 @@
         <v>1634</v>
       </c>
       <c r="Q60" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="V60">
         <v>59</v>
@@ -8126,7 +8123,7 @@
         <v>1632</v>
       </c>
       <c r="Q61" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="V61">
         <v>60</v>
@@ -8170,7 +8167,7 @@
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="V62">
         <v>61</v>
@@ -8334,7 +8331,7 @@
       </c>
       <c r="P66" s="8"/>
       <c r="Q66" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="V66">
         <v>65</v>
@@ -8418,7 +8415,7 @@
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="V68">
         <v>67</v>
@@ -8461,7 +8458,7 @@
         <v>1634</v>
       </c>
       <c r="Q69" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="V69">
         <v>68</v>
@@ -8584,7 +8581,7 @@
         <v>1634</v>
       </c>
       <c r="Q72" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="V72">
         <v>71</v>
@@ -8623,20 +8620,19 @@
       <c r="M73" t="s">
         <v>144</v>
       </c>
-      <c r="O73" s="6" t="s">
-        <v>1634</v>
-      </c>
-      <c r="P73" s="7"/>
+      <c r="O73" s="3">
+        <v>6</v>
+      </c>
       <c r="V73">
         <v>72</v>
       </c>
       <c r="W73">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X73">
         <f t="shared" si="4"/>
-        <v>0.54166666666666663</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
@@ -8672,11 +8668,11 @@
       </c>
       <c r="W74">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X74">
         <f t="shared" si="4"/>
-        <v>0.53424657534246578</v>
+        <v>0.54794520547945202</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
@@ -8713,11 +8709,11 @@
       </c>
       <c r="W75">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X75">
         <f t="shared" si="4"/>
-        <v>0.54054054054054057</v>
+        <v>0.55405405405405406</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
@@ -8749,18 +8745,18 @@
         <v>1632</v>
       </c>
       <c r="Q76" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="V76">
         <v>75</v>
       </c>
       <c r="W76">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X76">
         <f t="shared" si="4"/>
-        <v>0.53333333333333333</v>
+        <v>0.54666666666666663</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.3">
@@ -8796,11 +8792,11 @@
       </c>
       <c r="W77">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="X77">
         <f t="shared" si="4"/>
-        <v>0.52631578947368418</v>
+        <v>0.53947368421052633</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.3">
@@ -8836,11 +8832,11 @@
       </c>
       <c r="W78">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X78">
         <f t="shared" si="4"/>
-        <v>0.53246753246753242</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.3">
@@ -8876,11 +8872,11 @@
       </c>
       <c r="W79">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X79">
         <f t="shared" si="4"/>
-        <v>0.52564102564102566</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.3">
@@ -8916,11 +8912,11 @@
       </c>
       <c r="W80">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X80">
         <f t="shared" si="4"/>
-        <v>0.53164556962025311</v>
+        <v>0.54430379746835444</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
@@ -8956,11 +8952,11 @@
       </c>
       <c r="W81">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X81">
         <f t="shared" si="4"/>
-        <v>0.52500000000000002</v>
+        <v>0.53749999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.3">
@@ -8996,11 +8992,11 @@
       </c>
       <c r="W82">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X82">
         <f t="shared" si="4"/>
-        <v>0.51851851851851849</v>
+        <v>0.53086419753086422</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.3">
@@ -9036,11 +9032,11 @@
       </c>
       <c r="W83">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X83">
         <f t="shared" si="4"/>
-        <v>0.51219512195121952</v>
+        <v>0.52439024390243905</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.3">
@@ -9073,18 +9069,18 @@
       </c>
       <c r="P84" s="7"/>
       <c r="Q84" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="V84">
         <v>83</v>
       </c>
       <c r="W84">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X84">
         <f t="shared" si="4"/>
-        <v>0.50602409638554213</v>
+        <v>0.51807228915662651</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.3">
@@ -9116,18 +9112,18 @@
         <v>1634</v>
       </c>
       <c r="Q85" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="V85">
         <v>84</v>
       </c>
       <c r="W85">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X85">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.51190476190476186</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.3">
@@ -9163,11 +9159,11 @@
       </c>
       <c r="W86">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X86">
         <f t="shared" si="4"/>
-        <v>0.49411764705882355</v>
+        <v>0.50588235294117645</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.3">
@@ -9203,11 +9199,11 @@
       </c>
       <c r="W87">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X87">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.51162790697674421</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.3">
@@ -9243,11 +9239,11 @@
       </c>
       <c r="W88">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X88">
         <f t="shared" si="4"/>
-        <v>0.4942528735632184</v>
+        <v>0.50574712643678166</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.3">
@@ -9284,11 +9280,11 @@
       </c>
       <c r="W89">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X89">
         <f t="shared" si="4"/>
-        <v>0.48863636363636365</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
@@ -9324,11 +9320,11 @@
       </c>
       <c r="W90">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X90">
         <f t="shared" si="4"/>
-        <v>0.48314606741573035</v>
+        <v>0.4943820224719101</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
@@ -9361,18 +9357,18 @@
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="V91">
         <v>90</v>
       </c>
       <c r="W91">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X91">
         <f t="shared" si="4"/>
-        <v>0.4777777777777778</v>
+        <v>0.48888888888888887</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
@@ -9408,11 +9404,11 @@
       </c>
       <c r="W92">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X92">
         <f t="shared" si="4"/>
-        <v>0.47252747252747251</v>
+        <v>0.48351648351648352</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.3">
@@ -9448,11 +9444,11 @@
       </c>
       <c r="W93">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X93">
         <f t="shared" si="4"/>
-        <v>0.46739130434782611</v>
+        <v>0.47826086956521741</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.3">
@@ -9488,11 +9484,11 @@
       </c>
       <c r="W94">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X94">
         <f t="shared" si="4"/>
-        <v>0.46236559139784944</v>
+        <v>0.4731182795698925</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.3">
@@ -9528,11 +9524,11 @@
       </c>
       <c r="W95">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X95">
         <f t="shared" si="4"/>
-        <v>0.45744680851063829</v>
+        <v>0.46808510638297873</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.3">
@@ -9569,11 +9565,11 @@
       </c>
       <c r="W96">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X96">
         <f t="shared" si="4"/>
-        <v>0.45263157894736844</v>
+        <v>0.4631578947368421</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
@@ -9609,11 +9605,11 @@
       </c>
       <c r="W97">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X97">
         <f t="shared" si="4"/>
-        <v>0.44791666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.3">
@@ -9649,11 +9645,11 @@
       </c>
       <c r="W98">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X98">
         <f t="shared" si="4"/>
-        <v>0.44329896907216493</v>
+        <v>0.45360824742268041</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
@@ -9689,11 +9685,11 @@
       </c>
       <c r="W99">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X99">
         <f t="shared" si="4"/>
-        <v>0.43877551020408162</v>
+        <v>0.44897959183673469</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.3">
@@ -9729,11 +9725,11 @@
       </c>
       <c r="W100">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X100">
         <f t="shared" si="4"/>
-        <v>0.43434343434343436</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.3">
@@ -9769,11 +9765,11 @@
       </c>
       <c r="W101">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X101">
         <f t="shared" si="4"/>
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
@@ -9965,7 +9961,7 @@
       </c>
       <c r="P108" s="7"/>
       <c r="Q108" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.3">
@@ -10413,7 +10409,7 @@
         <v>1632</v>
       </c>
       <c r="Q125" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
@@ -10445,7 +10441,7 @@
         <v>1632</v>
       </c>
       <c r="Q126" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
@@ -10768,7 +10764,7 @@
       </c>
       <c r="P138" s="7"/>
       <c r="Q138" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
@@ -12344,7 +12340,7 @@
       </c>
       <c r="P198" s="7"/>
       <c r="Q198" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
@@ -14917,7 +14913,7 @@
       </c>
       <c r="P296" s="7"/>
       <c r="Q296" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.3">
@@ -15106,7 +15102,7 @@
       </c>
       <c r="P303" s="7"/>
       <c r="Q303" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.3">
@@ -15271,7 +15267,7 @@
         <v>1632</v>
       </c>
       <c r="Q309" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.3">
@@ -17213,7 +17209,7 @@
         <v>7</v>
       </c>
       <c r="Q383" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.3">
@@ -17297,7 +17293,7 @@
         <v>1634</v>
       </c>
       <c r="Q386" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.3">
@@ -18583,7 +18579,7 @@
         <v>1634</v>
       </c>
       <c r="Q435" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="436" spans="1:17" x14ac:dyDescent="0.3">
@@ -20312,8 +20308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:Z501"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20347,16 +20343,16 @@
         <v>8</v>
       </c>
       <c r="V1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="W1" t="s">
         <v>1688</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>1689</v>
       </c>
-      <c r="X1" t="s">
-        <v>1690</v>
-      </c>
       <c r="Y1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -20496,7 +20492,7 @@
       </c>
       <c r="Z4">
         <f>COUNTIF(O2:O101,Y4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -20546,7 +20542,7 @@
       </c>
       <c r="Z5">
         <f>COUNTIF(O2:O101,Y5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -20643,7 +20639,7 @@
       </c>
       <c r="Z7">
         <f>COUNTIF(O2:O101,Y7)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -20887,7 +20883,7 @@
       </c>
       <c r="Z12">
         <f>COUNTIF(O2:O101,Y12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -20937,7 +20933,7 @@
       </c>
       <c r="Z13">
         <f>COUNTIF(O2:O101,Y13)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -21015,22 +21011,19 @@
       <c r="M15" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="4">
-        <v>3</v>
-      </c>
-      <c r="P15" t="s">
-        <v>1637</v>
+      <c r="O15" s="6" t="s">
+        <v>1634</v>
       </c>
       <c r="V15">
         <v>14</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Y15">
         <v>16</v>
@@ -21073,11 +21066,11 @@
       </c>
       <c r="W16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X16">
         <f t="shared" si="1"/>
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
@@ -21113,11 +21106,11 @@
       </c>
       <c r="W17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X17">
         <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
@@ -21153,11 +21146,11 @@
       </c>
       <c r="W18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X18">
         <f t="shared" si="1"/>
-        <v>0.88235294117647056</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
@@ -21196,11 +21189,11 @@
       </c>
       <c r="W19">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X19">
         <f t="shared" si="1"/>
-        <v>0.88888888888888884</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
@@ -21228,22 +21221,19 @@
       <c r="M20" t="s">
         <v>213</v>
       </c>
-      <c r="O20" s="4">
-        <v>14</v>
-      </c>
-      <c r="P20" s="6" t="s">
+      <c r="O20" s="6" t="s">
         <v>1634</v>
       </c>
       <c r="V20">
         <v>19</v>
       </c>
       <c r="W20">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>W19+(IF(ISNUMBER(#REF!),1,0))</f>
+        <v>15</v>
       </c>
       <c r="X20">
         <f t="shared" si="1"/>
-        <v>0.89473684210526316</v>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
@@ -21279,11 +21269,11 @@
       </c>
       <c r="W21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X21">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
@@ -21322,11 +21312,11 @@
       </c>
       <c r="W22">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X22">
         <f t="shared" si="1"/>
-        <v>0.90476190476190477</v>
+        <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -21359,18 +21349,18 @@
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="V23">
         <v>22</v>
       </c>
       <c r="W23">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X23">
         <f t="shared" si="1"/>
-        <v>0.86363636363636365</v>
+        <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -21406,11 +21396,11 @@
       </c>
       <c r="W24">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X24">
         <f t="shared" si="1"/>
-        <v>0.82608695652173914</v>
+        <v>0.73913043478260865</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
@@ -21446,11 +21436,11 @@
       </c>
       <c r="W25">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X25">
         <f t="shared" si="1"/>
-        <v>0.79166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -21486,11 +21476,11 @@
       </c>
       <c r="W26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X26">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
@@ -21526,11 +21516,11 @@
       </c>
       <c r="W27">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="X27">
         <f t="shared" si="1"/>
-        <v>0.76923076923076927</v>
+        <v>0.69230769230769229</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
@@ -21562,18 +21552,18 @@
         <v>6</v>
       </c>
       <c r="Q28" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="V28">
         <v>27</v>
       </c>
       <c r="W28">
         <f>W27+(IF(ISNUMBER(O28),1,0))</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X28">
         <f t="shared" si="1"/>
-        <v>0.77777777777777779</v>
+        <v>0.70370370370370372</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
@@ -21612,11 +21602,11 @@
       </c>
       <c r="W29">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X29">
         <f t="shared" si="1"/>
-        <v>0.7857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
@@ -21652,11 +21642,11 @@
       </c>
       <c r="W30">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X30">
         <f t="shared" si="1"/>
-        <v>0.75862068965517238</v>
+        <v>0.68965517241379315</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
@@ -21692,11 +21682,11 @@
       </c>
       <c r="W31">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X31">
         <f t="shared" si="1"/>
-        <v>0.73333333333333328</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
@@ -21732,11 +21722,11 @@
       </c>
       <c r="W32">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X32">
         <f t="shared" si="1"/>
-        <v>0.70967741935483875</v>
+        <v>0.64516129032258063</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
@@ -21768,18 +21758,18 @@
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="V33">
         <v>32</v>
       </c>
       <c r="W33">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X33">
         <f t="shared" si="1"/>
-        <v>0.71875</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
@@ -21812,18 +21802,18 @@
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="V34">
         <v>33</v>
       </c>
       <c r="W34">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X34">
         <f t="shared" si="1"/>
-        <v>0.69696969696969702</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
@@ -21856,18 +21846,18 @@
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="V35">
         <v>34</v>
       </c>
       <c r="W35">
         <f t="shared" ref="W35:W66" si="2">W34+(IF(ISNUMBER(O35),1,0))</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X35">
         <f t="shared" si="1"/>
-        <v>0.67647058823529416</v>
+        <v>0.61764705882352944</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
@@ -21902,18 +21892,18 @@
         <v>1632</v>
       </c>
       <c r="Q36" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="V36">
         <v>35</v>
       </c>
       <c r="W36">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X36">
         <f t="shared" si="1"/>
-        <v>0.65714285714285714</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
@@ -21945,18 +21935,18 @@
         <v>1632</v>
       </c>
       <c r="Q37" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="V37">
         <v>36</v>
       </c>
       <c r="W37">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X37">
         <f t="shared" si="1"/>
-        <v>0.63888888888888884</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
@@ -21995,11 +21985,11 @@
       </c>
       <c r="W38">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X38">
         <f t="shared" si="1"/>
-        <v>0.64864864864864868</v>
+        <v>0.59459459459459463</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
@@ -22035,11 +22025,11 @@
       </c>
       <c r="W39">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X39">
         <f t="shared" si="1"/>
-        <v>0.65789473684210531</v>
+        <v>0.60526315789473684</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
@@ -22072,18 +22062,18 @@
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="V40">
         <v>39</v>
       </c>
       <c r="W40">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X40">
         <f t="shared" si="1"/>
-        <v>0.64102564102564108</v>
+        <v>0.58974358974358976</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
@@ -22119,11 +22109,11 @@
       </c>
       <c r="W41">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X41">
         <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
@@ -22155,18 +22145,18 @@
         <v>1634</v>
       </c>
       <c r="Q42" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="V42">
         <v>41</v>
       </c>
       <c r="W42">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X42">
         <f t="shared" si="1"/>
-        <v>0.6097560975609756</v>
+        <v>0.56097560975609762</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
@@ -22202,11 +22192,11 @@
       </c>
       <c r="W43">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X43">
         <f t="shared" si="1"/>
-        <v>0.59523809523809523</v>
+        <v>0.54761904761904767</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
@@ -22242,11 +22232,11 @@
       </c>
       <c r="W44">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X44">
         <f t="shared" si="1"/>
-        <v>0.58139534883720934</v>
+        <v>0.53488372093023251</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
@@ -22274,8 +22264,8 @@
       <c r="M45" t="s">
         <v>96</v>
       </c>
-      <c r="O45" s="1">
-        <v>7</v>
+      <c r="O45" s="3">
+        <v>4</v>
       </c>
       <c r="P45" t="s">
         <v>1636</v>
@@ -22285,11 +22275,11 @@
       </c>
       <c r="W45">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X45">
         <f t="shared" si="1"/>
-        <v>0.59090909090909094</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
@@ -22325,11 +22315,11 @@
       </c>
       <c r="W46">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X46">
         <f t="shared" si="1"/>
-        <v>0.57777777777777772</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
@@ -22357,25 +22347,22 @@
       <c r="M47" t="s">
         <v>838</v>
       </c>
-      <c r="O47" s="6" t="s">
-        <v>1634</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="O47" s="3">
         <v>13</v>
       </c>
       <c r="Q47" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="V47">
         <v>46</v>
       </c>
       <c r="W47">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f>W46+(IF(ISNUMBER(#REF!),1,0))</f>
+        <v>24</v>
       </c>
       <c r="X47">
         <f t="shared" si="1"/>
-        <v>0.56521739130434778</v>
+        <v>0.52173913043478259</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
@@ -22411,11 +22398,11 @@
       </c>
       <c r="W48">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X48">
         <f t="shared" si="1"/>
-        <v>0.55319148936170215</v>
+        <v>0.51063829787234039</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
@@ -22451,11 +22438,11 @@
       </c>
       <c r="W49">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X49">
         <f t="shared" si="1"/>
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
@@ -22491,11 +22478,11 @@
       </c>
       <c r="W50">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X50">
         <f t="shared" si="1"/>
-        <v>0.53061224489795922</v>
+        <v>0.48979591836734693</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
@@ -22531,11 +22518,11 @@
       </c>
       <c r="W51">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X51">
         <f t="shared" si="1"/>
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
@@ -22571,11 +22558,11 @@
       </c>
       <c r="W52">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X52">
         <f t="shared" si="1"/>
-        <v>0.52941176470588236</v>
+        <v>0.49019607843137253</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
@@ -22611,11 +22598,11 @@
       </c>
       <c r="W53">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X53">
         <f t="shared" si="1"/>
-        <v>0.51923076923076927</v>
+        <v>0.48076923076923078</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
@@ -22651,11 +22638,11 @@
       </c>
       <c r="W54">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X54">
         <f t="shared" si="1"/>
-        <v>0.50943396226415094</v>
+        <v>0.47169811320754718</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
@@ -22694,11 +22681,11 @@
       </c>
       <c r="W55">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X55">
         <f t="shared" si="1"/>
-        <v>0.51851851851851849</v>
+        <v>0.48148148148148145</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
@@ -22730,18 +22717,18 @@
         <v>7</v>
       </c>
       <c r="P56" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="V56">
         <v>55</v>
       </c>
       <c r="W56">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X56">
         <f t="shared" si="1"/>
-        <v>0.52727272727272723</v>
+        <v>0.49090909090909091</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
@@ -22773,18 +22760,18 @@
         <v>6</v>
       </c>
       <c r="Q57" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="V57">
         <v>56</v>
       </c>
       <c r="W57">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X57">
         <f t="shared" si="1"/>
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
@@ -22820,11 +22807,11 @@
       </c>
       <c r="W58">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X58">
         <f t="shared" si="1"/>
-        <v>0.52631578947368418</v>
+        <v>0.49122807017543857</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
@@ -22860,11 +22847,11 @@
       </c>
       <c r="W59">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X59">
         <f t="shared" si="1"/>
-        <v>0.51724137931034486</v>
+        <v>0.48275862068965519</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
@@ -22900,11 +22887,11 @@
       </c>
       <c r="W60">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X60">
         <f t="shared" si="1"/>
-        <v>0.50847457627118642</v>
+        <v>0.47457627118644069</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
@@ -22940,11 +22927,11 @@
       </c>
       <c r="W61">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X61">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.46666666666666667</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
@@ -22980,11 +22967,11 @@
       </c>
       <c r="W62">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X62">
         <f t="shared" si="1"/>
-        <v>0.49180327868852458</v>
+        <v>0.45901639344262296</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
@@ -23020,11 +23007,11 @@
       </c>
       <c r="W63">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X63">
         <f t="shared" si="1"/>
-        <v>0.4838709677419355</v>
+        <v>0.45161290322580644</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
@@ -23060,11 +23047,11 @@
       </c>
       <c r="W64">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X64">
         <f t="shared" si="1"/>
-        <v>0.47619047619047616</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
@@ -23100,11 +23087,11 @@
       </c>
       <c r="W65">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X65">
         <f t="shared" si="1"/>
-        <v>0.46875</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
@@ -23140,11 +23127,11 @@
       </c>
       <c r="W66">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X66">
         <f t="shared" si="1"/>
-        <v>0.46153846153846156</v>
+        <v>0.43076923076923079</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
@@ -23180,11 +23167,11 @@
       </c>
       <c r="W67">
         <f t="shared" ref="W67:W101" si="3">W66+(IF(ISNUMBER(O67),1,0))</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X67">
         <f t="shared" ref="X67:X101" si="4">W67/V67</f>
-        <v>0.45454545454545453</v>
+        <v>0.42424242424242425</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
@@ -23220,11 +23207,11 @@
       </c>
       <c r="W68">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X68">
         <f t="shared" si="4"/>
-        <v>0.44776119402985076</v>
+        <v>0.41791044776119401</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
@@ -23260,11 +23247,11 @@
       </c>
       <c r="W69">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X69">
         <f t="shared" si="4"/>
-        <v>0.44117647058823528</v>
+        <v>0.41176470588235292</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
@@ -23296,18 +23283,18 @@
         <v>1632</v>
       </c>
       <c r="Q70" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="V70">
         <v>69</v>
       </c>
       <c r="W70">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X70">
         <f t="shared" si="4"/>
-        <v>0.43478260869565216</v>
+        <v>0.40579710144927539</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
@@ -23339,18 +23326,18 @@
         <v>4</v>
       </c>
       <c r="Q71" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V71">
         <v>70</v>
       </c>
       <c r="W71">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X71">
         <f t="shared" si="4"/>
-        <v>0.44285714285714284</v>
+        <v>0.41428571428571431</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
@@ -23386,11 +23373,11 @@
       </c>
       <c r="W72">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X72">
         <f t="shared" si="4"/>
-        <v>0.43661971830985913</v>
+        <v>0.40845070422535212</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
@@ -23426,11 +23413,11 @@
       </c>
       <c r="W73">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X73">
         <f t="shared" si="4"/>
-        <v>0.44444444444444442</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
@@ -23469,11 +23456,11 @@
       </c>
       <c r="W74">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X74">
         <f t="shared" si="4"/>
-        <v>0.45205479452054792</v>
+        <v>0.42465753424657532</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
@@ -23506,18 +23493,18 @@
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="V75">
         <v>74</v>
       </c>
       <c r="W75">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X75">
         <f t="shared" si="4"/>
-        <v>0.44594594594594594</v>
+        <v>0.41891891891891891</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
@@ -23553,11 +23540,11 @@
       </c>
       <c r="W76">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X76">
         <f t="shared" si="4"/>
-        <v>0.44</v>
+        <v>0.41333333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.3">
@@ -23593,11 +23580,11 @@
       </c>
       <c r="W77">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X77">
         <f t="shared" si="4"/>
-        <v>0.44736842105263158</v>
+        <v>0.42105263157894735</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.3">
@@ -23633,11 +23620,11 @@
       </c>
       <c r="W78">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X78">
         <f t="shared" si="4"/>
-        <v>0.44155844155844154</v>
+        <v>0.41558441558441561</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.3">
@@ -23673,11 +23660,11 @@
       </c>
       <c r="W79">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X79">
         <f t="shared" si="4"/>
-        <v>0.4358974358974359</v>
+        <v>0.41025641025641024</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.3">
@@ -23713,11 +23700,11 @@
       </c>
       <c r="W80">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X80">
         <f t="shared" si="4"/>
-        <v>0.43037974683544306</v>
+        <v>0.4050632911392405</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
@@ -23753,11 +23740,11 @@
       </c>
       <c r="W81">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X81">
         <f t="shared" si="4"/>
-        <v>0.42499999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.3">
@@ -23793,11 +23780,11 @@
       </c>
       <c r="W82">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X82">
         <f t="shared" si="4"/>
-        <v>0.41975308641975306</v>
+        <v>0.39506172839506171</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.3">
@@ -23833,11 +23820,11 @@
       </c>
       <c r="W83">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X83">
         <f t="shared" si="4"/>
-        <v>0.41463414634146339</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.3">
@@ -23869,18 +23856,18 @@
         <v>6</v>
       </c>
       <c r="Q84" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="V84">
         <v>83</v>
       </c>
       <c r="W84">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X84">
         <f t="shared" si="4"/>
-        <v>0.42168674698795183</v>
+        <v>0.39759036144578314</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.3">
@@ -23916,11 +23903,11 @@
       </c>
       <c r="W85">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X85">
         <f t="shared" si="4"/>
-        <v>0.41666666666666669</v>
+        <v>0.39285714285714285</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.3">
@@ -23956,11 +23943,11 @@
       </c>
       <c r="W86">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X86">
         <f t="shared" si="4"/>
-        <v>0.41176470588235292</v>
+        <v>0.38823529411764707</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.3">
@@ -23999,11 +23986,11 @@
       </c>
       <c r="W87">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X87">
         <f t="shared" si="4"/>
-        <v>0.41860465116279072</v>
+        <v>0.39534883720930231</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.3">
@@ -24035,18 +24022,18 @@
         <v>6</v>
       </c>
       <c r="Q88" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="V88">
         <v>87</v>
       </c>
       <c r="W88">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X88">
         <f t="shared" si="4"/>
-        <v>0.42528735632183906</v>
+        <v>0.40229885057471265</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.3">
@@ -24082,11 +24069,11 @@
       </c>
       <c r="W89">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X89">
         <f t="shared" si="4"/>
-        <v>0.42045454545454547</v>
+        <v>0.39772727272727271</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
@@ -24122,11 +24109,11 @@
       </c>
       <c r="W90">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X90">
         <f t="shared" si="4"/>
-        <v>0.4157303370786517</v>
+        <v>0.39325842696629215</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
@@ -24162,11 +24149,11 @@
       </c>
       <c r="W91">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X91">
         <f t="shared" si="4"/>
-        <v>0.41111111111111109</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
@@ -24202,11 +24189,11 @@
       </c>
       <c r="W92">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X92">
         <f t="shared" si="4"/>
-        <v>0.40659340659340659</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.3">
@@ -24242,11 +24229,11 @@
       </c>
       <c r="W93">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X93">
         <f t="shared" si="4"/>
-        <v>0.40217391304347827</v>
+        <v>0.38043478260869568</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.3">
@@ -24283,11 +24270,11 @@
       </c>
       <c r="W94">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X94">
         <f t="shared" si="4"/>
-        <v>0.39784946236559138</v>
+        <v>0.37634408602150538</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.3">
@@ -24323,11 +24310,11 @@
       </c>
       <c r="W95">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X95">
         <f t="shared" si="4"/>
-        <v>0.39361702127659576</v>
+        <v>0.37234042553191488</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.3">
@@ -24363,11 +24350,11 @@
       </c>
       <c r="W96">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X96">
         <f t="shared" si="4"/>
-        <v>0.38947368421052631</v>
+        <v>0.36842105263157893</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
@@ -24403,11 +24390,11 @@
       </c>
       <c r="W97">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X97">
         <f t="shared" si="4"/>
-        <v>0.38541666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.3">
@@ -24443,11 +24430,11 @@
       </c>
       <c r="W98">
         <f t="shared" si="3"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X98">
         <f t="shared" si="4"/>
-        <v>0.38144329896907214</v>
+        <v>0.36082474226804123</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
@@ -24482,18 +24469,18 @@
         <v>1634</v>
       </c>
       <c r="Q99" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="V99">
         <v>98</v>
       </c>
       <c r="W99">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X99">
         <f t="shared" si="4"/>
-        <v>0.38775510204081631</v>
+        <v>0.36734693877551022</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.3">
@@ -24529,11 +24516,11 @@
       </c>
       <c r="W100">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X100">
         <f t="shared" si="4"/>
-        <v>0.38383838383838381</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.3">
@@ -24569,11 +24556,11 @@
       </c>
       <c r="W101">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X101">
         <f t="shared" si="4"/>
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
@@ -24687,7 +24674,7 @@
       </c>
       <c r="P105" s="7"/>
       <c r="Q105" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.3">
@@ -33187,7 +33174,7 @@
         <v>7</v>
       </c>
       <c r="Q431" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="432" spans="1:17" x14ac:dyDescent="0.3">

--- a/Iter2-analysisPairs.xlsx
+++ b/Iter2-analysisPairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC59A701-250F-4F8F-8507-D0C4026FC8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BB37BD-C2A9-47C1-ADAA-524956CC7E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6840" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchIssuesAllEmails" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="1692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="1689">
   <si>
     <t>UID</t>
   </si>
@@ -4942,9 +4942,6 @@
     <t>Architectural irrelevant</t>
   </si>
   <si>
-    <t>Email is about using issue</t>
-  </si>
-  <si>
     <t>Not related</t>
   </si>
   <si>
@@ -5014,9 +5011,6 @@
     <t>Email is very generic</t>
   </si>
   <si>
-    <t>FS implementation</t>
-  </si>
-  <si>
     <t>Pluggable storage engine</t>
   </si>
   <si>
@@ -5099,9 +5093,6 @@
   </si>
   <si>
     <t>Merge into trunk.</t>
-  </si>
-  <si>
-    <t>CEP-19, which is build ontop of CEP-11, making it difficult. If we look at CEP-19 in a void it should be pattern 8 but it has the wrong issue</t>
   </si>
   <si>
     <t>tot.</t>
@@ -5499,8 +5490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF74" sqref="AF74"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5534,16 +5525,16 @@
         <v>8</v>
       </c>
       <c r="V1" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="W1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Y1" t="s">
         <v>1688</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -5824,7 +5815,7 @@
       </c>
       <c r="Z7">
         <f>COUNTIF(O2:O101,Y7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -5950,7 +5941,7 @@
         <v>1632</v>
       </c>
       <c r="Q10" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="V10">
         <v>9</v>
@@ -6047,7 +6038,7 @@
         <v>1632</v>
       </c>
       <c r="Q12" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="V12">
         <v>11</v>
@@ -6097,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="Q13" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="V13">
         <v>12</v>
@@ -6194,7 +6185,7 @@
         <v>3</v>
       </c>
       <c r="Q15" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="V15">
         <v>14</v>
@@ -6444,7 +6435,7 @@
         <v>3</v>
       </c>
       <c r="Q21" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="V21">
         <v>20</v>
@@ -6488,7 +6479,7 @@
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="V22">
         <v>21</v>
@@ -6531,7 +6522,7 @@
         <v>7</v>
       </c>
       <c r="P23" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V23">
         <v>22</v>
@@ -6577,7 +6568,7 @@
         <v>1632</v>
       </c>
       <c r="Q24" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="V24">
         <v>23</v>
@@ -6740,7 +6731,7 @@
         <v>1632</v>
       </c>
       <c r="Q28" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="V28">
         <v>27</v>
@@ -6900,11 +6891,11 @@
         <v>59</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="V32">
         <v>31</v>
@@ -6944,11 +6935,11 @@
         <v>65</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="V33">
         <v>32</v>
@@ -6988,10 +6979,10 @@
         <v>219</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q34" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="V34">
         <v>33</v>
@@ -7035,7 +7026,7 @@
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="V35">
         <v>34</v>
@@ -7119,7 +7110,7 @@
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="V37">
         <v>36</v>
@@ -7199,11 +7190,11 @@
         <v>40</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="V39">
         <v>38</v>
@@ -7246,7 +7237,7 @@
         <v>1632</v>
       </c>
       <c r="Q40" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="V40">
         <v>39</v>
@@ -7326,7 +7317,7 @@
         <v>222</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V42">
         <v>41</v>
@@ -7369,7 +7360,7 @@
         <v>7</v>
       </c>
       <c r="Q43" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="V43">
         <v>42</v>
@@ -7409,10 +7400,10 @@
         <v>223</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q44" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="V44">
         <v>43</v>
@@ -7492,7 +7483,7 @@
         <v>224</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V46">
         <v>45</v>
@@ -7532,7 +7523,7 @@
         <v>149</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V47">
         <v>46</v>
@@ -7572,7 +7563,7 @@
         <v>225</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V48">
         <v>47</v>
@@ -7618,7 +7609,7 @@
         <v>1632</v>
       </c>
       <c r="Q49" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="V49">
         <v>48</v>
@@ -7698,10 +7689,10 @@
         <v>131</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q51" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="V51">
         <v>50</v>
@@ -7741,7 +7732,7 @@
         <v>194</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V52">
         <v>51</v>
@@ -7781,7 +7772,7 @@
         <v>25</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V53">
         <v>52</v>
@@ -7821,11 +7812,11 @@
         <v>58</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="V54">
         <v>53</v>
@@ -7865,7 +7856,7 @@
         <v>60</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>1632</v>
@@ -7908,7 +7899,7 @@
         <v>226</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V56">
         <v>55</v>
@@ -7947,22 +7938,19 @@
       <c r="M57" t="s">
         <v>220</v>
       </c>
-      <c r="O57" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>1657</v>
+      <c r="O57" s="6" t="s">
+        <v>1633</v>
       </c>
       <c r="V57">
         <v>56</v>
       </c>
       <c r="W57">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X57">
         <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
@@ -7994,18 +7982,18 @@
         <v>7</v>
       </c>
       <c r="Q58" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="V58">
         <v>57</v>
       </c>
       <c r="W58">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X58">
         <f t="shared" si="1"/>
-        <v>0.63157894736842102</v>
+        <v>0.61403508771929827</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
@@ -8041,11 +8029,11 @@
       </c>
       <c r="W59">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X59">
         <f t="shared" si="1"/>
-        <v>0.63793103448275867</v>
+        <v>0.62068965517241381</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
@@ -8074,21 +8062,21 @@
         <v>227</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q60" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="V60">
         <v>59</v>
       </c>
       <c r="W60">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X60">
         <f t="shared" si="1"/>
-        <v>0.6271186440677966</v>
+        <v>0.61016949152542377</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
@@ -8117,24 +8105,24 @@
         <v>228</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P61" s="5" t="s">
         <v>1632</v>
       </c>
       <c r="Q61" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="V61">
         <v>60</v>
       </c>
       <c r="W61">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X61">
         <f t="shared" si="1"/>
-        <v>0.6166666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
@@ -8163,22 +8151,22 @@
         <v>229</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="V62">
         <v>61</v>
       </c>
       <c r="W62">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X62">
         <f t="shared" si="1"/>
-        <v>0.60655737704918034</v>
+        <v>0.5901639344262295</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
@@ -8214,11 +8202,11 @@
       </c>
       <c r="W63">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X63">
         <f t="shared" si="1"/>
-        <v>0.61290322580645162</v>
+        <v>0.59677419354838712</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
@@ -8254,11 +8242,11 @@
       </c>
       <c r="W64">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X64">
         <f t="shared" si="1"/>
-        <v>0.61904761904761907</v>
+        <v>0.60317460317460314</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.3">
@@ -8287,18 +8275,18 @@
         <v>821</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V65">
         <v>64</v>
       </c>
       <c r="W65">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X65">
         <f t="shared" si="1"/>
-        <v>0.609375</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
@@ -8327,22 +8315,22 @@
         <v>194</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P66" s="8"/>
       <c r="Q66" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="V66">
         <v>65</v>
       </c>
       <c r="W66">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X66">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.58461538461538465</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
@@ -8371,18 +8359,18 @@
         <v>221</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V67">
         <v>66</v>
       </c>
       <c r="W67">
         <f t="shared" ref="W67:W101" si="3">W66+(IF(ISNUMBER(O67),1,0))</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X67">
         <f t="shared" ref="X67:X101" si="4">W67/V67</f>
-        <v>0.59090909090909094</v>
+        <v>0.5757575757575758</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
@@ -8411,22 +8399,22 @@
         <v>67</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P68" s="8"/>
       <c r="Q68" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="V68">
         <v>67</v>
       </c>
       <c r="W68">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X68">
         <f t="shared" si="4"/>
-        <v>0.58208955223880599</v>
+        <v>0.56716417910447758</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
@@ -8455,21 +8443,21 @@
         <v>224</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q69" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="V69">
         <v>68</v>
       </c>
       <c r="W69">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X69">
         <f t="shared" si="4"/>
-        <v>0.57352941176470584</v>
+        <v>0.55882352941176472</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
@@ -8498,18 +8486,18 @@
         <v>30</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V70">
         <v>69</v>
       </c>
       <c r="W70">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X70">
         <f t="shared" si="4"/>
-        <v>0.56521739130434778</v>
+        <v>0.55072463768115942</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
@@ -8538,18 +8526,18 @@
         <v>231</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V71">
         <v>70</v>
       </c>
       <c r="W71">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X71">
         <f t="shared" si="4"/>
-        <v>0.55714285714285716</v>
+        <v>0.54285714285714282</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
@@ -8578,21 +8566,21 @@
         <v>165</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q72" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="V72">
         <v>71</v>
       </c>
       <c r="W72">
         <f t="shared" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X72">
         <f t="shared" si="4"/>
-        <v>0.54929577464788737</v>
+        <v>0.53521126760563376</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
@@ -8628,11 +8616,11 @@
       </c>
       <c r="W73">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X73">
         <f t="shared" si="4"/>
-        <v>0.55555555555555558</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
@@ -8661,18 +8649,18 @@
         <v>49</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V74">
         <v>73</v>
       </c>
       <c r="W74">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X74">
         <f t="shared" si="4"/>
-        <v>0.54794520547945202</v>
+        <v>0.53424657534246578</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
@@ -8709,11 +8697,11 @@
       </c>
       <c r="W75">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X75">
         <f t="shared" si="4"/>
-        <v>0.55405405405405406</v>
+        <v>0.54054054054054057</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
@@ -8745,18 +8733,18 @@
         <v>1632</v>
       </c>
       <c r="Q76" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="V76">
         <v>75</v>
       </c>
       <c r="W76">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X76">
         <f t="shared" si="4"/>
-        <v>0.54666666666666663</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.3">
@@ -8785,18 +8773,18 @@
         <v>233</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V77">
         <v>76</v>
       </c>
       <c r="W77">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X77">
         <f t="shared" si="4"/>
-        <v>0.53947368421052633</v>
+        <v>0.52631578947368418</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.3">
@@ -8832,11 +8820,11 @@
       </c>
       <c r="W78">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X78">
         <f t="shared" si="4"/>
-        <v>0.54545454545454541</v>
+        <v>0.53246753246753242</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.3">
@@ -8865,18 +8853,18 @@
         <v>65</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V79">
         <v>78</v>
       </c>
       <c r="W79">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X79">
         <f t="shared" si="4"/>
-        <v>0.53846153846153844</v>
+        <v>0.52564102564102566</v>
       </c>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.3">
@@ -8912,11 +8900,11 @@
       </c>
       <c r="W80">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X80">
         <f t="shared" si="4"/>
-        <v>0.54430379746835444</v>
+        <v>0.53164556962025311</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.3">
@@ -8945,18 +8933,18 @@
         <v>77</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V81">
         <v>80</v>
       </c>
       <c r="W81">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X81">
         <f t="shared" si="4"/>
-        <v>0.53749999999999998</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.3">
@@ -8985,18 +8973,18 @@
         <v>235</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V82">
         <v>81</v>
       </c>
       <c r="W82">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X82">
         <f t="shared" si="4"/>
-        <v>0.53086419753086422</v>
+        <v>0.51851851851851849</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.3">
@@ -9025,18 +9013,18 @@
         <v>44</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V83">
         <v>82</v>
       </c>
       <c r="W83">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X83">
         <f t="shared" si="4"/>
-        <v>0.52439024390243905</v>
+        <v>0.51219512195121952</v>
       </c>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.3">
@@ -9065,22 +9053,22 @@
         <v>26</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P84" s="7"/>
       <c r="Q84" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="V84">
         <v>83</v>
       </c>
       <c r="W84">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X84">
         <f t="shared" si="4"/>
-        <v>0.51807228915662651</v>
+        <v>0.50602409638554213</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.3">
@@ -9109,21 +9097,21 @@
         <v>236</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q85" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="V85">
         <v>84</v>
       </c>
       <c r="W85">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X85">
         <f t="shared" si="4"/>
-        <v>0.51190476190476186</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.3">
@@ -9159,11 +9147,11 @@
       </c>
       <c r="W86">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X86">
         <f t="shared" si="4"/>
-        <v>0.50588235294117645</v>
+        <v>0.49411764705882355</v>
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.3">
@@ -9199,11 +9187,11 @@
       </c>
       <c r="W87">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X87">
         <f t="shared" si="4"/>
-        <v>0.51162790697674421</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.3">
@@ -9232,18 +9220,18 @@
         <v>46</v>
       </c>
       <c r="O88" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V88">
         <v>87</v>
       </c>
       <c r="W88">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X88">
         <f t="shared" si="4"/>
-        <v>0.50574712643678166</v>
+        <v>0.4942528735632184</v>
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.3">
@@ -9272,7 +9260,7 @@
         <v>197</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="T89" s="2"/>
       <c r="V89">
@@ -9280,11 +9268,11 @@
       </c>
       <c r="W89">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X89">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.48863636363636365</v>
       </c>
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.3">
@@ -9313,18 +9301,18 @@
         <v>67</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V90">
         <v>89</v>
       </c>
       <c r="W90">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X90">
         <f t="shared" si="4"/>
-        <v>0.4943820224719101</v>
+        <v>0.48314606741573035</v>
       </c>
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.3">
@@ -9353,22 +9341,22 @@
         <v>38</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="V91">
         <v>90</v>
       </c>
       <c r="W91">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X91">
         <f t="shared" si="4"/>
-        <v>0.48888888888888887</v>
+        <v>0.4777777777777778</v>
       </c>
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.3">
@@ -9397,18 +9385,18 @@
         <v>235</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V92">
         <v>91</v>
       </c>
       <c r="W92">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X92">
         <f t="shared" si="4"/>
-        <v>0.48351648351648352</v>
+        <v>0.47252747252747251</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.3">
@@ -9437,18 +9425,18 @@
         <v>237</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V93">
         <v>92</v>
       </c>
       <c r="W93">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X93">
         <f t="shared" si="4"/>
-        <v>0.47826086956521741</v>
+        <v>0.46739130434782611</v>
       </c>
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.3">
@@ -9477,18 +9465,18 @@
         <v>77</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V94">
         <v>93</v>
       </c>
       <c r="W94">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X94">
         <f t="shared" si="4"/>
-        <v>0.4731182795698925</v>
+        <v>0.46236559139784944</v>
       </c>
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.3">
@@ -9517,18 +9505,18 @@
         <v>238</v>
       </c>
       <c r="O95" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V95">
         <v>94</v>
       </c>
       <c r="W95">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X95">
         <f t="shared" si="4"/>
-        <v>0.46808510638297873</v>
+        <v>0.45744680851063829</v>
       </c>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.3">
@@ -9557,7 +9545,7 @@
         <v>229</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P96" s="7"/>
       <c r="V96">
@@ -9565,11 +9553,11 @@
       </c>
       <c r="W96">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X96">
         <f t="shared" si="4"/>
-        <v>0.4631578947368421</v>
+        <v>0.45263157894736844</v>
       </c>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.3">
@@ -9598,18 +9586,18 @@
         <v>70</v>
       </c>
       <c r="O97" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V97">
         <v>96</v>
       </c>
       <c r="W97">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X97">
         <f t="shared" si="4"/>
-        <v>0.45833333333333331</v>
+        <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.3">
@@ -9638,18 +9626,18 @@
         <v>822</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V98">
         <v>97</v>
       </c>
       <c r="W98">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X98">
         <f t="shared" si="4"/>
-        <v>0.45360824742268041</v>
+        <v>0.44329896907216493</v>
       </c>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.3">
@@ -9678,18 +9666,18 @@
         <v>240</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V99">
         <v>98</v>
       </c>
       <c r="W99">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X99">
         <f t="shared" si="4"/>
-        <v>0.44897959183673469</v>
+        <v>0.43877551020408162</v>
       </c>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.3">
@@ -9718,18 +9706,18 @@
         <v>224</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V100">
         <v>99</v>
       </c>
       <c r="W100">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X100">
         <f t="shared" si="4"/>
-        <v>0.44444444444444442</v>
+        <v>0.43434343434343436</v>
       </c>
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.3">
@@ -9758,18 +9746,18 @@
         <v>228</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V101">
         <v>100</v>
       </c>
       <c r="W101">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X101">
         <f t="shared" si="4"/>
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.3">
@@ -9957,11 +9945,11 @@
         <v>206</v>
       </c>
       <c r="O108" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P108" s="7"/>
       <c r="Q108" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.3">
@@ -10409,7 +10397,7 @@
         <v>1632</v>
       </c>
       <c r="Q125" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
@@ -10441,7 +10429,7 @@
         <v>1632</v>
       </c>
       <c r="Q126" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
@@ -10760,11 +10748,11 @@
         <v>253</v>
       </c>
       <c r="O138" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P138" s="7"/>
       <c r="Q138" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
@@ -11287,7 +11275,7 @@
         <v>25</v>
       </c>
       <c r="O158" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -11576,7 +11564,7 @@
         <v>261</v>
       </c>
       <c r="O169" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
@@ -12336,11 +12324,11 @@
         <v>194</v>
       </c>
       <c r="O198" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P198" s="7"/>
       <c r="Q198" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
@@ -14062,7 +14050,7 @@
         <v>65</v>
       </c>
       <c r="O264" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.3">
@@ -14247,7 +14235,7 @@
         <v>151</v>
       </c>
       <c r="O271" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.3">
@@ -14640,7 +14628,7 @@
         <v>50</v>
       </c>
       <c r="O286" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.3">
@@ -14747,7 +14735,7 @@
         <v>203</v>
       </c>
       <c r="O290" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.3">
@@ -14880,7 +14868,7 @@
         <v>80</v>
       </c>
       <c r="O295" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.3">
@@ -14909,11 +14897,11 @@
         <v>63</v>
       </c>
       <c r="O296" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P296" s="7"/>
       <c r="Q296" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.3">
@@ -15098,11 +15086,11 @@
         <v>131</v>
       </c>
       <c r="O303" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P303" s="7"/>
       <c r="Q303" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.3">
@@ -15131,7 +15119,7 @@
         <v>77</v>
       </c>
       <c r="O304" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.3">
@@ -15267,7 +15255,7 @@
         <v>1632</v>
       </c>
       <c r="Q309" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.3">
@@ -16128,7 +16116,7 @@
         <v>27</v>
       </c>
       <c r="O342" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.3">
@@ -16443,7 +16431,7 @@
         <v>154</v>
       </c>
       <c r="O354" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.3">
@@ -16576,7 +16564,7 @@
         <v>75</v>
       </c>
       <c r="O359" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.3">
@@ -16813,7 +16801,7 @@
         <v>77</v>
       </c>
       <c r="O368" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="369" spans="1:17" x14ac:dyDescent="0.3">
@@ -17209,7 +17197,7 @@
         <v>7</v>
       </c>
       <c r="Q383" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.3">
@@ -17290,10 +17278,10 @@
         <v>51</v>
       </c>
       <c r="O386" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q386" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.3">
@@ -18154,7 +18142,7 @@
         <v>47</v>
       </c>
       <c r="O419" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.3">
@@ -18576,10 +18564,10 @@
         <v>207</v>
       </c>
       <c r="O435" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q435" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="436" spans="1:17" x14ac:dyDescent="0.3">
@@ -20308,8 +20296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:Z501"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20343,16 +20331,16 @@
         <v>8</v>
       </c>
       <c r="V1" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="W1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="Y1" t="s">
         <v>1688</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1689</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -20524,7 +20512,7 @@
         <v>7</v>
       </c>
       <c r="P5" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V5">
         <v>4</v>
@@ -20617,10 +20605,7 @@
       <c r="M7" t="s">
         <v>165</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>1632</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="O7" s="6" t="s">
         <v>1633</v>
       </c>
       <c r="V7">
@@ -20671,7 +20656,7 @@
         <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V8">
         <v>7</v>
@@ -20718,7 +20703,7 @@
         <v>827</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V9">
         <v>8</v>
@@ -20768,7 +20753,7 @@
         <v>7</v>
       </c>
       <c r="P10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V10">
         <v>9</v>
@@ -20818,7 +20803,7 @@
         <v>7</v>
       </c>
       <c r="P11" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="V11">
         <v>10</v>
@@ -20915,7 +20900,7 @@
         <v>7</v>
       </c>
       <c r="P13" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V13">
         <v>12</v>
@@ -20965,7 +20950,7 @@
         <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V14">
         <v>13</v>
@@ -21012,7 +20997,7 @@
         <v>89</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V15">
         <v>14</v>
@@ -21182,7 +21167,7 @@
         <v>7</v>
       </c>
       <c r="P19" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V19">
         <v>18</v>
@@ -21222,7 +21207,7 @@
         <v>213</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V20">
         <v>19</v>
@@ -21305,7 +21290,7 @@
         <v>7</v>
       </c>
       <c r="P22" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V22">
         <v>21</v>
@@ -21345,11 +21330,11 @@
         <v>220</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="V23">
         <v>22</v>
@@ -21389,7 +21374,7 @@
         <v>160</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V24">
         <v>23</v>
@@ -21509,7 +21494,7 @@
         <v>67</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V27">
         <v>26</v>
@@ -21552,7 +21537,7 @@
         <v>6</v>
       </c>
       <c r="Q28" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="V28">
         <v>27</v>
@@ -21595,7 +21580,7 @@
         <v>7</v>
       </c>
       <c r="P29" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V29">
         <v>28</v>
@@ -21635,7 +21620,7 @@
         <v>830</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V30">
         <v>29</v>
@@ -21675,7 +21660,7 @@
         <v>831</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V31">
         <v>30</v>
@@ -21715,7 +21700,7 @@
         <v>106</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V32">
         <v>31</v>
@@ -21758,7 +21743,7 @@
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="V33">
         <v>32</v>
@@ -21798,11 +21783,11 @@
         <v>832</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="V34">
         <v>33</v>
@@ -21842,11 +21827,11 @@
         <v>833</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="V35">
         <v>34</v>
@@ -21886,13 +21871,13 @@
         <v>834</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>1632</v>
       </c>
       <c r="Q36" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="V36">
         <v>35</v>
@@ -21935,7 +21920,7 @@
         <v>1632</v>
       </c>
       <c r="Q37" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="V37">
         <v>36</v>
@@ -21978,7 +21963,7 @@
         <v>7</v>
       </c>
       <c r="P38" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V38">
         <v>37</v>
@@ -22058,11 +22043,11 @@
         <v>229</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P40" s="7"/>
       <c r="Q40" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="V40">
         <v>39</v>
@@ -22102,7 +22087,7 @@
         <v>836</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V41">
         <v>40</v>
@@ -22142,10 +22127,10 @@
         <v>837</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q42" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="V42">
         <v>41</v>
@@ -22185,7 +22170,7 @@
         <v>98</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V43">
         <v>42</v>
@@ -22225,7 +22210,7 @@
         <v>94</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V44">
         <v>43</v>
@@ -22268,7 +22253,7 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="V45">
         <v>44</v>
@@ -22308,7 +22293,7 @@
         <v>176</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V46">
         <v>45</v>
@@ -22351,7 +22336,7 @@
         <v>13</v>
       </c>
       <c r="Q47" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="V47">
         <v>46</v>
@@ -22391,7 +22376,7 @@
         <v>219</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V48">
         <v>47</v>
@@ -22431,7 +22416,7 @@
         <v>839</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V49">
         <v>48</v>
@@ -22471,7 +22456,7 @@
         <v>840</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V50">
         <v>49</v>
@@ -22551,7 +22536,7 @@
         <v>841</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V52">
         <v>51</v>
@@ -22591,7 +22576,7 @@
         <v>245</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V53">
         <v>52</v>
@@ -22631,7 +22616,7 @@
         <v>842</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V54">
         <v>53</v>
@@ -22674,7 +22659,7 @@
         <v>7</v>
       </c>
       <c r="P55" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V55">
         <v>54</v>
@@ -22717,7 +22702,7 @@
         <v>7</v>
       </c>
       <c r="P56" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="V56">
         <v>55</v>
@@ -22760,7 +22745,7 @@
         <v>6</v>
       </c>
       <c r="Q57" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="V57">
         <v>56</v>
@@ -22800,7 +22785,7 @@
         <v>219</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V58">
         <v>57</v>
@@ -22840,7 +22825,7 @@
         <v>843</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V59">
         <v>58</v>
@@ -22880,7 +22865,7 @@
         <v>223</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V60">
         <v>59</v>
@@ -22920,7 +22905,7 @@
         <v>844</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V61">
         <v>60</v>
@@ -22960,7 +22945,7 @@
         <v>845</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V62">
         <v>61</v>
@@ -23000,7 +22985,7 @@
         <v>224</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V63">
         <v>62</v>
@@ -23040,7 +23025,7 @@
         <v>25</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V64">
         <v>63</v>
@@ -23080,7 +23065,7 @@
         <v>846</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V65">
         <v>64</v>
@@ -23120,7 +23105,7 @@
         <v>847</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V66">
         <v>65</v>
@@ -23160,7 +23145,7 @@
         <v>180</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V67">
         <v>66</v>
@@ -23200,7 +23185,7 @@
         <v>97</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V68">
         <v>67</v>
@@ -23240,7 +23225,7 @@
         <v>848</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V69">
         <v>68</v>
@@ -23283,7 +23268,7 @@
         <v>1632</v>
       </c>
       <c r="Q70" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="V70">
         <v>69</v>
@@ -23326,7 +23311,7 @@
         <v>4</v>
       </c>
       <c r="Q71" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="V71">
         <v>70</v>
@@ -23366,7 +23351,7 @@
         <v>849</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V72">
         <v>71</v>
@@ -23449,7 +23434,7 @@
         <v>7</v>
       </c>
       <c r="P74" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V74">
         <v>73</v>
@@ -23489,11 +23474,11 @@
         <v>53</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="V75">
         <v>74</v>
@@ -23533,7 +23518,7 @@
         <v>128</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V76">
         <v>75</v>
@@ -23613,7 +23598,7 @@
         <v>850</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V78">
         <v>77</v>
@@ -23653,7 +23638,7 @@
         <v>183</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V79">
         <v>78</v>
@@ -23693,7 +23678,7 @@
         <v>852</v>
       </c>
       <c r="O80" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V80">
         <v>79</v>
@@ -23733,7 +23718,7 @@
         <v>839</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V81">
         <v>80</v>
@@ -23773,7 +23758,7 @@
         <v>153</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V82">
         <v>81</v>
@@ -23813,7 +23798,7 @@
         <v>853</v>
       </c>
       <c r="O83" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V83">
         <v>82</v>
@@ -23856,7 +23841,7 @@
         <v>6</v>
       </c>
       <c r="Q84" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="V84">
         <v>83</v>
@@ -23896,7 +23881,7 @@
         <v>855</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V85">
         <v>84</v>
@@ -23936,7 +23921,7 @@
         <v>856</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V86">
         <v>85</v>
@@ -23979,7 +23964,7 @@
         <v>7</v>
       </c>
       <c r="P87" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="V87">
         <v>86</v>
@@ -24022,7 +24007,7 @@
         <v>6</v>
       </c>
       <c r="Q88" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="V88">
         <v>87</v>
@@ -24062,7 +24047,7 @@
         <v>858</v>
       </c>
       <c r="O89" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V89">
         <v>88</v>
@@ -24102,7 +24087,7 @@
         <v>859</v>
       </c>
       <c r="O90" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V90">
         <v>89</v>
@@ -24142,7 +24127,7 @@
         <v>860</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V91">
         <v>90</v>
@@ -24182,7 +24167,7 @@
         <v>861</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V92">
         <v>91</v>
@@ -24222,7 +24207,7 @@
         <v>862</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V93">
         <v>92</v>
@@ -24262,7 +24247,7 @@
         <v>187</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P94" s="7"/>
       <c r="V94">
@@ -24303,7 +24288,7 @@
         <v>118</v>
       </c>
       <c r="O95" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V95">
         <v>94</v>
@@ -24343,7 +24328,7 @@
         <v>864</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V96">
         <v>95</v>
@@ -24383,7 +24368,7 @@
         <v>865</v>
       </c>
       <c r="O97" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V97">
         <v>96</v>
@@ -24423,7 +24408,7 @@
         <v>866</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V98">
         <v>97</v>
@@ -24466,10 +24451,10 @@
         <v>16</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>1634</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>1686</v>
+        <v>1633</v>
+      </c>
+      <c r="Q99">
+        <v>-2</v>
       </c>
       <c r="V99">
         <v>98</v>
@@ -24509,7 +24494,7 @@
         <v>214</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V100">
         <v>99</v>
@@ -24549,7 +24534,7 @@
         <v>867</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="V101">
         <v>100</v>
@@ -24615,7 +24600,7 @@
         <v>869</v>
       </c>
       <c r="O103" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.3">
@@ -24670,11 +24655,11 @@
         <v>216</v>
       </c>
       <c r="O105" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="P105" s="7"/>
       <c r="Q105" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.3">
@@ -25769,7 +25754,7 @@
         <v>184</v>
       </c>
       <c r="O147" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -27647,7 +27632,7 @@
         <v>181</v>
       </c>
       <c r="O219" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.3">
@@ -27858,7 +27843,7 @@
         <v>210</v>
       </c>
       <c r="O227" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.3">
@@ -28979,7 +28964,7 @@
         <v>987</v>
       </c>
       <c r="O270" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.3">
@@ -31478,7 +31463,7 @@
         <v>50</v>
       </c>
       <c r="O366" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.3">
@@ -33174,7 +33159,7 @@
         <v>7</v>
       </c>
       <c r="Q431" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="432" spans="1:17" x14ac:dyDescent="0.3">
@@ -34945,7 +34930,7 @@
         <v>215</v>
       </c>
       <c r="O499" s="6" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="500" spans="1:15" x14ac:dyDescent="0.3">
